--- a/casino/casino-admin/src/main/resources/excleTemplate/gameList.xlsx
+++ b/casino/casino-admin/src/main/resources/excleTemplate/gameList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86176\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6923C406-D69D-43B3-9D37-16FD02F46C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49B91E2-60B7-48C3-8871-7F1723F3D1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="1028">
   <si>
     <t>平台id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3620,6 +3620,81 @@
       <t>故事</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百家乐</t>
+  </si>
+  <si>
+    <t>龙虎</t>
+  </si>
+  <si>
+    <t>轮盘</t>
+  </si>
+  <si>
+    <t>骰宝</t>
+  </si>
+  <si>
+    <t>牛牛</t>
+  </si>
+  <si>
+    <t>三公</t>
+  </si>
+  <si>
+    <t>番摊</t>
+  </si>
+  <si>
+    <t>鱼虾蟹</t>
+  </si>
+  <si>
+    <t>炸金花</t>
+  </si>
+  <si>
+    <t>温州牌九</t>
+  </si>
+  <si>
+    <t>二八杠</t>
+  </si>
+  <si>
+    <t>安達巴哈</t>
+  </si>
+  <si>
+    <t>Baccarat</t>
+  </si>
+  <si>
+    <t>Dragon Tiger</t>
+  </si>
+  <si>
+    <t>Roulette</t>
+  </si>
+  <si>
+    <t>SicBo</t>
+  </si>
+  <si>
+    <t>Niu Niu</t>
+  </si>
+  <si>
+    <t>Three Face</t>
+  </si>
+  <si>
+    <t>Fantan</t>
+  </si>
+  <si>
+    <t>Se Die</t>
+  </si>
+  <si>
+    <t>Fish-Prawn-Crab</t>
+  </si>
+  <si>
+    <t>Golden Flower</t>
+  </si>
+  <si>
+    <t>Wenzhou Pai Gow</t>
+  </si>
+  <si>
+    <t>Mahjong tiles</t>
+  </si>
+  <si>
+    <t>AndarBahar</t>
   </si>
 </sst>
 </file>
@@ -4207,10 +4282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E336"/>
+  <dimension ref="A1:G349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="E334" sqref="E334"/>
+    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
+      <selection activeCell="D350" sqref="D350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4241,7 +4316,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.4">
       <c r="A2" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -4258,7 +4333,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.4">
       <c r="A3" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -4275,7 +4350,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.4">
       <c r="A4" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -4292,7 +4367,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.4">
       <c r="A5" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -4309,7 +4384,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.4">
       <c r="A6" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -4326,7 +4401,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.4">
       <c r="A7" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -4343,7 +4418,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.4">
       <c r="A8" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -4360,7 +4435,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.4">
       <c r="A9" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -4377,7 +4452,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.4">
       <c r="A10" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -4394,7 +4469,7 @@
     </row>
     <row r="11" spans="1:5" ht="14.4">
       <c r="A11" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -4411,7 +4486,7 @@
     </row>
     <row r="12" spans="1:5" ht="14.4">
       <c r="A12" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>13</v>
@@ -4428,7 +4503,7 @@
     </row>
     <row r="13" spans="1:5" ht="14.4">
       <c r="A13" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
@@ -4445,7 +4520,7 @@
     </row>
     <row r="14" spans="1:5" ht="14.4">
       <c r="A14" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>15</v>
@@ -4462,7 +4537,7 @@
     </row>
     <row r="15" spans="1:5" ht="14.4">
       <c r="A15" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>16</v>
@@ -4479,7 +4554,7 @@
     </row>
     <row r="16" spans="1:5" ht="14.4">
       <c r="A16" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
@@ -4496,7 +4571,7 @@
     </row>
     <row r="17" spans="1:5" ht="14.4">
       <c r="A17" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>18</v>
@@ -4513,7 +4588,7 @@
     </row>
     <row r="18" spans="1:5" ht="14.4">
       <c r="A18" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>19</v>
@@ -4530,7 +4605,7 @@
     </row>
     <row r="19" spans="1:5" ht="14.4">
       <c r="A19" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>20</v>
@@ -4547,7 +4622,7 @@
     </row>
     <row r="20" spans="1:5" ht="14.4">
       <c r="A20" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>21</v>
@@ -4564,7 +4639,7 @@
     </row>
     <row r="21" spans="1:5" ht="14.4">
       <c r="A21" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>22</v>
@@ -4581,7 +4656,7 @@
     </row>
     <row r="22" spans="1:5" ht="14.4">
       <c r="A22" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>23</v>
@@ -4598,7 +4673,7 @@
     </row>
     <row r="23" spans="1:5" ht="14.4">
       <c r="A23" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>24</v>
@@ -4615,7 +4690,7 @@
     </row>
     <row r="24" spans="1:5" ht="14.4">
       <c r="A24" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>25</v>
@@ -4632,7 +4707,7 @@
     </row>
     <row r="25" spans="1:5" ht="14.4">
       <c r="A25" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>26</v>
@@ -4649,7 +4724,7 @@
     </row>
     <row r="26" spans="1:5" ht="14.4">
       <c r="A26" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>27</v>
@@ -4666,7 +4741,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.4">
       <c r="A27" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>28</v>
@@ -4683,7 +4758,7 @@
     </row>
     <row r="28" spans="1:5" ht="14.4">
       <c r="A28" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>29</v>
@@ -4700,7 +4775,7 @@
     </row>
     <row r="29" spans="1:5" ht="14.4">
       <c r="A29" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>30</v>
@@ -4717,7 +4792,7 @@
     </row>
     <row r="30" spans="1:5" ht="14.4">
       <c r="A30" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>31</v>
@@ -4734,7 +4809,7 @@
     </row>
     <row r="31" spans="1:5" ht="14.4">
       <c r="A31" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>32</v>
@@ -4751,7 +4826,7 @@
     </row>
     <row r="32" spans="1:5" ht="14.4">
       <c r="A32" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>33</v>
@@ -4768,7 +4843,7 @@
     </row>
     <row r="33" spans="1:5" ht="14.4">
       <c r="A33" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>34</v>
@@ -4785,7 +4860,7 @@
     </row>
     <row r="34" spans="1:5" ht="14.4">
       <c r="A34" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>35</v>
@@ -4802,7 +4877,7 @@
     </row>
     <row r="35" spans="1:5" ht="14.4">
       <c r="A35" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>36</v>
@@ -4819,7 +4894,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>37</v>
@@ -4836,7 +4911,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>38</v>
@@ -4853,7 +4928,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>39</v>
@@ -4870,7 +4945,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>40</v>
@@ -4887,7 +4962,7 @@
     </row>
     <row r="40" spans="1:5" ht="14.4">
       <c r="A40" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>41</v>
@@ -4904,7 +4979,7 @@
     </row>
     <row r="41" spans="1:5" ht="14.4">
       <c r="A41" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>42</v>
@@ -4921,7 +4996,7 @@
     </row>
     <row r="42" spans="1:5" ht="14.4">
       <c r="A42" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>43</v>
@@ -4938,7 +5013,7 @@
     </row>
     <row r="43" spans="1:5" ht="14.4">
       <c r="A43" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>44</v>
@@ -4955,7 +5030,7 @@
     </row>
     <row r="44" spans="1:5" ht="14.4">
       <c r="A44" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>45</v>
@@ -4972,7 +5047,7 @@
     </row>
     <row r="45" spans="1:5" ht="14.4">
       <c r="A45" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>46</v>
@@ -4989,7 +5064,7 @@
     </row>
     <row r="46" spans="1:5" ht="14.4">
       <c r="A46" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>47</v>
@@ -5006,7 +5081,7 @@
     </row>
     <row r="47" spans="1:5" ht="14.4">
       <c r="A47" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>48</v>
@@ -5023,7 +5098,7 @@
     </row>
     <row r="48" spans="1:5" ht="14.4">
       <c r="A48" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>49</v>
@@ -5040,7 +5115,7 @@
     </row>
     <row r="49" spans="1:5" ht="14.4">
       <c r="A49" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>50</v>
@@ -5057,7 +5132,7 @@
     </row>
     <row r="50" spans="1:5" ht="14.4">
       <c r="A50" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>51</v>
@@ -5074,7 +5149,7 @@
     </row>
     <row r="51" spans="1:5" ht="14.4">
       <c r="A51" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>52</v>
@@ -5091,7 +5166,7 @@
     </row>
     <row r="52" spans="1:5" ht="14.4">
       <c r="A52" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>53</v>
@@ -5108,7 +5183,7 @@
     </row>
     <row r="53" spans="1:5" ht="14.4">
       <c r="A53" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>54</v>
@@ -5125,7 +5200,7 @@
     </row>
     <row r="54" spans="1:5" ht="14.4">
       <c r="A54" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>55</v>
@@ -5142,7 +5217,7 @@
     </row>
     <row r="55" spans="1:5" ht="14.4">
       <c r="A55" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>56</v>
@@ -5159,7 +5234,7 @@
     </row>
     <row r="56" spans="1:5" ht="14.4">
       <c r="A56" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>57</v>
@@ -5176,7 +5251,7 @@
     </row>
     <row r="57" spans="1:5" ht="14.4">
       <c r="A57" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>58</v>
@@ -5193,7 +5268,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>59</v>
@@ -5210,7 +5285,7 @@
     </row>
     <row r="59" spans="1:5" ht="14.4">
       <c r="A59" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>60</v>
@@ -5227,7 +5302,7 @@
     </row>
     <row r="60" spans="1:5" ht="14.4">
       <c r="A60" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>61</v>
@@ -5244,7 +5319,7 @@
     </row>
     <row r="61" spans="1:5" ht="14.4">
       <c r="A61" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>62</v>
@@ -5261,7 +5336,7 @@
     </row>
     <row r="62" spans="1:5" ht="14.4">
       <c r="A62" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>63</v>
@@ -5278,7 +5353,7 @@
     </row>
     <row r="63" spans="1:5" ht="14.4">
       <c r="A63" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>64</v>
@@ -5295,7 +5370,7 @@
     </row>
     <row r="64" spans="1:5" ht="14.4">
       <c r="A64" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>65</v>
@@ -5312,7 +5387,7 @@
     </row>
     <row r="65" spans="1:5" ht="14.4">
       <c r="A65" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>66</v>
@@ -5329,7 +5404,7 @@
     </row>
     <row r="66" spans="1:5" ht="14.4">
       <c r="A66" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>67</v>
@@ -5346,7 +5421,7 @@
     </row>
     <row r="67" spans="1:5" ht="14.4">
       <c r="A67" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>68</v>
@@ -5363,7 +5438,7 @@
     </row>
     <row r="68" spans="1:5" ht="14.4">
       <c r="A68" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>69</v>
@@ -5380,7 +5455,7 @@
     </row>
     <row r="69" spans="1:5" ht="14.4">
       <c r="A69" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>70</v>
@@ -5397,7 +5472,7 @@
     </row>
     <row r="70" spans="1:5" ht="14.4">
       <c r="A70" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>71</v>
@@ -5414,7 +5489,7 @@
     </row>
     <row r="71" spans="1:5" ht="14.4">
       <c r="A71" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>72</v>
@@ -5431,7 +5506,7 @@
     </row>
     <row r="72" spans="1:5" ht="14.4">
       <c r="A72" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>73</v>
@@ -5448,7 +5523,7 @@
     </row>
     <row r="73" spans="1:5" ht="14.4">
       <c r="A73" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>74</v>
@@ -5465,7 +5540,7 @@
     </row>
     <row r="74" spans="1:5" ht="14.4">
       <c r="A74" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>75</v>
@@ -5482,7 +5557,7 @@
     </row>
     <row r="75" spans="1:5" ht="14.4">
       <c r="A75" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>76</v>
@@ -5499,7 +5574,7 @@
     </row>
     <row r="76" spans="1:5" ht="14.4">
       <c r="A76" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>77</v>
@@ -5516,7 +5591,7 @@
     </row>
     <row r="77" spans="1:5" ht="14.4">
       <c r="A77" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>78</v>
@@ -5533,7 +5608,7 @@
     </row>
     <row r="78" spans="1:5" ht="14.4">
       <c r="A78" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>79</v>
@@ -5550,7 +5625,7 @@
     </row>
     <row r="79" spans="1:5" ht="14.4">
       <c r="A79" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>80</v>
@@ -5567,7 +5642,7 @@
     </row>
     <row r="80" spans="1:5" ht="14.4">
       <c r="A80" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>81</v>
@@ -5584,7 +5659,7 @@
     </row>
     <row r="81" spans="1:5" ht="14.4">
       <c r="A81" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>82</v>
@@ -5601,7 +5676,7 @@
     </row>
     <row r="82" spans="1:5" ht="14.4">
       <c r="A82" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>83</v>
@@ -5618,7 +5693,7 @@
     </row>
     <row r="83" spans="1:5" ht="14.4">
       <c r="A83" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>84</v>
@@ -5635,7 +5710,7 @@
     </row>
     <row r="84" spans="1:5" ht="14.4">
       <c r="A84" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>85</v>
@@ -5652,7 +5727,7 @@
     </row>
     <row r="85" spans="1:5" ht="14.4">
       <c r="A85" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>86</v>
@@ -5669,7 +5744,7 @@
     </row>
     <row r="86" spans="1:5" ht="14.4">
       <c r="A86" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>87</v>
@@ -5686,7 +5761,7 @@
     </row>
     <row r="87" spans="1:5" ht="14.4">
       <c r="A87" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>174</v>
@@ -5703,7 +5778,7 @@
     </row>
     <row r="88" spans="1:5" ht="14.4">
       <c r="A88" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>175</v>
@@ -5720,7 +5795,7 @@
     </row>
     <row r="89" spans="1:5" ht="14.4">
       <c r="A89" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>176</v>
@@ -5737,7 +5812,7 @@
     </row>
     <row r="90" spans="1:5" ht="14.4">
       <c r="A90" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>177</v>
@@ -5754,7 +5829,7 @@
     </row>
     <row r="91" spans="1:5" ht="14.4">
       <c r="A91" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B91" s="20" t="s">
         <v>178</v>
@@ -5771,7 +5846,7 @@
     </row>
     <row r="92" spans="1:5" ht="14.4">
       <c r="A92" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B92" s="20" t="s">
         <v>179</v>
@@ -5788,7 +5863,7 @@
     </row>
     <row r="93" spans="1:5" ht="14.4">
       <c r="A93" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B93" s="20" t="s">
         <v>180</v>
@@ -5805,7 +5880,7 @@
     </row>
     <row r="94" spans="1:5" ht="14.4">
       <c r="A94" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B94" s="20" t="s">
         <v>181</v>
@@ -5822,7 +5897,7 @@
     </row>
     <row r="95" spans="1:5" ht="14.4">
       <c r="A95" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B95" s="20" t="s">
         <v>182</v>
@@ -5839,7 +5914,7 @@
     </row>
     <row r="96" spans="1:5" ht="14.4">
       <c r="A96" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B96" s="20" t="s">
         <v>183</v>
@@ -5856,7 +5931,7 @@
     </row>
     <row r="97" spans="1:5" ht="14.4">
       <c r="A97" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B97" s="20" t="s">
         <v>184</v>
@@ -5873,7 +5948,7 @@
     </row>
     <row r="98" spans="1:5" ht="14.4">
       <c r="A98" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B98" s="20" t="s">
         <v>185</v>
@@ -5890,7 +5965,7 @@
     </row>
     <row r="99" spans="1:5" ht="14.4">
       <c r="A99" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B99" s="20" t="s">
         <v>186</v>
@@ -5907,7 +5982,7 @@
     </row>
     <row r="100" spans="1:5" ht="14.4">
       <c r="A100" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B100" s="20" t="s">
         <v>187</v>
@@ -5924,7 +5999,7 @@
     </row>
     <row r="101" spans="1:5" ht="14.4">
       <c r="A101" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>188</v>
@@ -5941,7 +6016,7 @@
     </row>
     <row r="102" spans="1:5" ht="14.4">
       <c r="A102" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B102" s="20" t="s">
         <v>189</v>
@@ -5958,7 +6033,7 @@
     </row>
     <row r="103" spans="1:5" ht="14.4">
       <c r="A103" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B103" s="20" t="s">
         <v>190</v>
@@ -5975,7 +6050,7 @@
     </row>
     <row r="104" spans="1:5" ht="14.4">
       <c r="A104" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B104" s="20" t="s">
         <v>191</v>
@@ -5992,7 +6067,7 @@
     </row>
     <row r="105" spans="1:5" ht="14.4">
       <c r="A105" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B105" s="20" t="s">
         <v>192</v>
@@ -6009,7 +6084,7 @@
     </row>
     <row r="106" spans="1:5" ht="14.4">
       <c r="A106" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B106" s="20" t="s">
         <v>193</v>
@@ -6026,7 +6101,7 @@
     </row>
     <row r="107" spans="1:5" ht="14.4">
       <c r="A107" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B107" s="20" t="s">
         <v>194</v>
@@ -6043,7 +6118,7 @@
     </row>
     <row r="108" spans="1:5" ht="14.4">
       <c r="A108" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B108" s="20" t="s">
         <v>195</v>
@@ -6060,7 +6135,7 @@
     </row>
     <row r="109" spans="1:5" ht="14.4">
       <c r="A109" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B109" s="20" t="s">
         <v>196</v>
@@ -6077,7 +6152,7 @@
     </row>
     <row r="110" spans="1:5" ht="14.4">
       <c r="A110" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B110" s="20" t="s">
         <v>197</v>
@@ -6094,7 +6169,7 @@
     </row>
     <row r="111" spans="1:5" ht="14.4">
       <c r="A111" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B111" s="20" t="s">
         <v>198</v>
@@ -6111,7 +6186,7 @@
     </row>
     <row r="112" spans="1:5" ht="14.4">
       <c r="A112" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B112" s="20" t="s">
         <v>199</v>
@@ -6128,7 +6203,7 @@
     </row>
     <row r="113" spans="1:5" ht="14.4">
       <c r="A113" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B113" s="20" t="s">
         <v>200</v>
@@ -6145,7 +6220,7 @@
     </row>
     <row r="114" spans="1:5" ht="14.4">
       <c r="A114" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B114" s="20" t="s">
         <v>201</v>
@@ -6162,7 +6237,7 @@
     </row>
     <row r="115" spans="1:5" ht="14.4">
       <c r="A115" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B115" s="20" t="s">
         <v>202</v>
@@ -6179,7 +6254,7 @@
     </row>
     <row r="116" spans="1:5" ht="14.4">
       <c r="A116" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B116" s="20" t="s">
         <v>203</v>
@@ -6196,7 +6271,7 @@
     </row>
     <row r="117" spans="1:5" ht="14.4">
       <c r="A117" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B117" s="20" t="s">
         <v>204</v>
@@ -6213,7 +6288,7 @@
     </row>
     <row r="118" spans="1:5" ht="14.4">
       <c r="A118" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B118" s="20" t="s">
         <v>205</v>
@@ -6230,7 +6305,7 @@
     </row>
     <row r="119" spans="1:5" ht="14.4">
       <c r="A119" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B119" s="20" t="s">
         <v>206</v>
@@ -6247,7 +6322,7 @@
     </row>
     <row r="120" spans="1:5" ht="14.4">
       <c r="A120" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B120" s="20" t="s">
         <v>207</v>
@@ -6264,7 +6339,7 @@
     </row>
     <row r="121" spans="1:5" ht="14.4">
       <c r="A121" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B121" s="20" t="s">
         <v>208</v>
@@ -6281,7 +6356,7 @@
     </row>
     <row r="122" spans="1:5" ht="14.4">
       <c r="A122" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B122" s="20" t="s">
         <v>209</v>
@@ -6298,7 +6373,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B123" s="21" t="s">
         <v>210</v>
@@ -6315,7 +6390,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B124" s="21" t="s">
         <v>211</v>
@@ -6332,7 +6407,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B125" s="21" t="s">
         <v>212</v>
@@ -6349,7 +6424,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B126" s="21" t="s">
         <v>213</v>
@@ -6366,7 +6441,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B127" s="21" t="s">
         <v>214</v>
@@ -6383,7 +6458,7 @@
     </row>
     <row r="128" spans="1:5" ht="14.4">
       <c r="A128" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>215</v>
@@ -6400,7 +6475,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B129" s="21" t="s">
         <v>216</v>
@@ -6417,7 +6492,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B130" s="21" t="s">
         <v>217</v>
@@ -6434,7 +6509,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B131" s="21" t="s">
         <v>218</v>
@@ -6451,7 +6526,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B132" s="21" t="s">
         <v>219</v>
@@ -6468,7 +6543,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B133" s="21" t="s">
         <v>220</v>
@@ -6485,7 +6560,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B134" s="21" t="s">
         <v>221</v>
@@ -6502,7 +6577,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B135" s="21" t="s">
         <v>222</v>
@@ -6519,7 +6594,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B136" s="21" t="s">
         <v>223</v>
@@ -6536,7 +6611,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B137" s="21" t="s">
         <v>224</v>
@@ -6553,7 +6628,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B138" s="21" t="s">
         <v>225</v>
@@ -6570,7 +6645,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B139" s="21" t="s">
         <v>226</v>
@@ -6587,7 +6662,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B140" s="21" t="s">
         <v>227</v>
@@ -6604,7 +6679,7 @@
     </row>
     <row r="141" spans="1:5" ht="14.4">
       <c r="A141" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>228</v>
@@ -6621,7 +6696,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B142" s="21" t="s">
         <v>229</v>
@@ -6638,7 +6713,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B143" s="21" t="s">
         <v>230</v>
@@ -6655,7 +6730,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B144" s="21" t="s">
         <v>231</v>
@@ -6672,7 +6747,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B145" s="21" t="s">
         <v>232</v>
@@ -6689,7 +6764,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B146" s="21" t="s">
         <v>233</v>
@@ -6706,7 +6781,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B147" s="21" t="s">
         <v>234</v>
@@ -6723,7 +6798,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B148" s="21" t="s">
         <v>235</v>
@@ -6740,7 +6815,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B149" s="21" t="s">
         <v>236</v>
@@ -6757,7 +6832,7 @@
     </row>
     <row r="150" spans="1:5" ht="14.4">
       <c r="A150" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B150" s="16" t="s">
         <v>237</v>
@@ -6774,7 +6849,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B151" s="21" t="s">
         <v>238</v>
@@ -6791,7 +6866,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B152" s="21" t="s">
         <v>239</v>
@@ -6808,7 +6883,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B153" s="21" t="s">
         <v>240</v>
@@ -6825,7 +6900,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B154" s="21" t="s">
         <v>241</v>
@@ -6842,7 +6917,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B155" s="21" t="s">
         <v>242</v>
@@ -6859,7 +6934,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B156" s="21" t="s">
         <v>243</v>
@@ -6876,7 +6951,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B157" s="21" t="s">
         <v>244</v>
@@ -6893,7 +6968,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B158" s="21" t="s">
         <v>245</v>
@@ -6910,7 +6985,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B159" s="21" t="s">
         <v>246</v>
@@ -6927,7 +7002,7 @@
     </row>
     <row r="160" spans="1:5" ht="14.4">
       <c r="A160" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B160" s="22" t="s">
         <v>247</v>
@@ -6944,7 +7019,7 @@
     </row>
     <row r="161" spans="1:5" ht="14.4">
       <c r="A161" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B161" s="22" t="s">
         <v>248</v>
@@ -6961,7 +7036,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B162" s="21" t="s">
         <v>249</v>
@@ -6978,7 +7053,7 @@
     </row>
     <row r="163" spans="1:5" ht="14.4">
       <c r="A163" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B163" s="23" t="s">
         <v>250</v>
@@ -6995,7 +7070,7 @@
     </row>
     <row r="164" spans="1:5" ht="14.4">
       <c r="A164" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B164" s="23" t="s">
         <v>251</v>
@@ -7012,7 +7087,7 @@
     </row>
     <row r="165" spans="1:5" ht="14.4">
       <c r="A165" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B165" s="23" t="s">
         <v>252</v>
@@ -7029,7 +7104,7 @@
     </row>
     <row r="166" spans="1:5" ht="14.4">
       <c r="A166" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B166" s="16" t="s">
         <v>253</v>
@@ -7046,7 +7121,7 @@
     </row>
     <row r="167" spans="1:5" ht="14.4">
       <c r="A167" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B167" s="23" t="s">
         <v>254</v>
@@ -7063,7 +7138,7 @@
     </row>
     <row r="168" spans="1:5" ht="14.4">
       <c r="A168" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B168" s="16" t="s">
         <v>255</v>
@@ -7080,7 +7155,7 @@
     </row>
     <row r="169" spans="1:5" ht="14.4">
       <c r="A169" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B169" s="9" t="s">
         <v>256</v>
@@ -7097,7 +7172,7 @@
     </row>
     <row r="170" spans="1:5" ht="14.4">
       <c r="A170" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B170" s="9" t="s">
         <v>257</v>
@@ -7114,7 +7189,7 @@
     </row>
     <row r="171" spans="1:5" ht="14.4">
       <c r="A171" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B171" s="16" t="s">
         <v>258</v>
@@ -7131,7 +7206,7 @@
     </row>
     <row r="172" spans="1:5" ht="14.4">
       <c r="A172" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B172" s="9">
         <v>666</v>
@@ -7148,7 +7223,7 @@
     </row>
     <row r="173" spans="1:5" ht="14.4">
       <c r="A173" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B173" s="24" t="s">
         <v>259</v>
@@ -7165,7 +7240,7 @@
     </row>
     <row r="174" spans="1:5" ht="14.4">
       <c r="A174" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B174" s="9" t="s">
         <v>260</v>
@@ -7182,7 +7257,7 @@
     </row>
     <row r="175" spans="1:5" ht="14.4">
       <c r="A175" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>261</v>
@@ -7199,7 +7274,7 @@
     </row>
     <row r="176" spans="1:5" ht="14.4">
       <c r="A176" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>262</v>
@@ -7216,7 +7291,7 @@
     </row>
     <row r="177" spans="1:5" ht="14.4">
       <c r="A177" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B177" s="16" t="s">
         <v>263</v>
@@ -7233,7 +7308,7 @@
     </row>
     <row r="178" spans="1:5" ht="14.4">
       <c r="A178" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B178" s="16" t="s">
         <v>264</v>
@@ -7250,7 +7325,7 @@
     </row>
     <row r="179" spans="1:5" ht="14.4">
       <c r="A179" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B179" s="16" t="s">
         <v>265</v>
@@ -7267,7 +7342,7 @@
     </row>
     <row r="180" spans="1:5" ht="14.4">
       <c r="A180" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B180" s="16" t="s">
         <v>266</v>
@@ -7284,7 +7359,7 @@
     </row>
     <row r="181" spans="1:5" ht="14.4">
       <c r="A181" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B181" s="16" t="s">
         <v>267</v>
@@ -7301,7 +7376,7 @@
     </row>
     <row r="182" spans="1:5" ht="14.4">
       <c r="A182" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B182" s="9" t="s">
         <v>268</v>
@@ -7318,7 +7393,7 @@
     </row>
     <row r="183" spans="1:5" ht="14.4">
       <c r="A183" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>269</v>
@@ -7335,7 +7410,7 @@
     </row>
     <row r="184" spans="1:5" ht="14.4">
       <c r="A184" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>270</v>
@@ -7352,7 +7427,7 @@
     </row>
     <row r="185" spans="1:5" ht="14.4">
       <c r="A185" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B185" s="16" t="s">
         <v>271</v>
@@ -7369,7 +7444,7 @@
     </row>
     <row r="186" spans="1:5" ht="14.4">
       <c r="A186" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B186" s="16" t="s">
         <v>272</v>
@@ -7386,7 +7461,7 @@
     </row>
     <row r="187" spans="1:5" ht="14.4">
       <c r="A187" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B187" s="9" t="s">
         <v>273</v>
@@ -7403,7 +7478,7 @@
     </row>
     <row r="188" spans="1:5" ht="14.4">
       <c r="A188" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B188" s="9" t="s">
         <v>274</v>
@@ -7420,7 +7495,7 @@
     </row>
     <row r="189" spans="1:5" ht="14.4">
       <c r="A189" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B189" s="9" t="s">
         <v>275</v>
@@ -7437,7 +7512,7 @@
     </row>
     <row r="190" spans="1:5" ht="14.4">
       <c r="A190" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B190" s="9" t="s">
         <v>276</v>
@@ -7454,7 +7529,7 @@
     </row>
     <row r="191" spans="1:5" ht="14.4">
       <c r="A191" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B191" s="9" t="s">
         <v>277</v>
@@ -7471,7 +7546,7 @@
     </row>
     <row r="192" spans="1:5" ht="14.4">
       <c r="A192" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>278</v>
@@ -7488,7 +7563,7 @@
     </row>
     <row r="193" spans="1:5" ht="14.4">
       <c r="A193" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B193" s="16" t="s">
         <v>279</v>
@@ -7505,7 +7580,7 @@
     </row>
     <row r="194" spans="1:5" ht="14.4">
       <c r="A194" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B194" s="16" t="s">
         <v>280</v>
@@ -7522,7 +7597,7 @@
     </row>
     <row r="195" spans="1:5" ht="14.4">
       <c r="A195" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B195" s="16" t="s">
         <v>281</v>
@@ -7539,7 +7614,7 @@
     </row>
     <row r="196" spans="1:5" ht="14.4">
       <c r="A196" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B196" s="11" t="s">
         <v>282</v>
@@ -7556,7 +7631,7 @@
     </row>
     <row r="197" spans="1:5" ht="14.4">
       <c r="A197" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B197" s="9" t="s">
         <v>283</v>
@@ -7573,7 +7648,7 @@
     </row>
     <row r="198" spans="1:5" ht="14.4">
       <c r="A198" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B198" s="16" t="s">
         <v>284</v>
@@ -7590,7 +7665,7 @@
     </row>
     <row r="199" spans="1:5" ht="14.4">
       <c r="A199" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B199" s="9" t="s">
         <v>285</v>
@@ -7607,7 +7682,7 @@
     </row>
     <row r="200" spans="1:5" ht="14.4">
       <c r="A200" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>286</v>
@@ -7624,7 +7699,7 @@
     </row>
     <row r="201" spans="1:5" ht="14.4">
       <c r="A201" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B201" s="9" t="s">
         <v>287</v>
@@ -7641,7 +7716,7 @@
     </row>
     <row r="202" spans="1:5" ht="14.4">
       <c r="A202" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B202" s="9" t="s">
         <v>288</v>
@@ -7658,7 +7733,7 @@
     </row>
     <row r="203" spans="1:5" ht="14.4">
       <c r="A203" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B203" s="16" t="s">
         <v>289</v>
@@ -7675,7 +7750,7 @@
     </row>
     <row r="204" spans="1:5" ht="14.4">
       <c r="A204" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B204" s="25" t="s">
         <v>290</v>
@@ -7692,7 +7767,7 @@
     </row>
     <row r="205" spans="1:5" ht="14.4">
       <c r="A205" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B205" s="25" t="s">
         <v>291</v>
@@ -7709,7 +7784,7 @@
     </row>
     <row r="206" spans="1:5" ht="14.4">
       <c r="A206" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B206" s="25" t="s">
         <v>292</v>
@@ -7726,7 +7801,7 @@
     </row>
     <row r="207" spans="1:5" ht="14.4">
       <c r="A207" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B207" s="16" t="s">
         <v>293</v>
@@ -7743,7 +7818,7 @@
     </row>
     <row r="208" spans="1:5" ht="14.4">
       <c r="A208" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B208" s="16" t="s">
         <v>294</v>
@@ -7760,7 +7835,7 @@
     </row>
     <row r="209" spans="1:5" ht="14.4">
       <c r="A209" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B209" s="9" t="s">
         <v>295</v>
@@ -7777,7 +7852,7 @@
     </row>
     <row r="210" spans="1:5" ht="14.4">
       <c r="A210" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B210" s="9" t="s">
         <v>296</v>
@@ -7794,7 +7869,7 @@
     </row>
     <row r="211" spans="1:5" ht="14.4">
       <c r="A211" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B211" s="9" t="s">
         <v>297</v>
@@ -7811,7 +7886,7 @@
     </row>
     <row r="212" spans="1:5" ht="14.4">
       <c r="A212" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B212" s="23" t="s">
         <v>298</v>
@@ -7828,7 +7903,7 @@
     </row>
     <row r="213" spans="1:5" ht="14.4">
       <c r="A213" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B213" s="23" t="s">
         <v>299</v>
@@ -7845,7 +7920,7 @@
     </row>
     <row r="214" spans="1:5" ht="14.4">
       <c r="A214" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B214" s="9" t="s">
         <v>300</v>
@@ -7862,7 +7937,7 @@
     </row>
     <row r="215" spans="1:5" ht="14.4">
       <c r="A215" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B215" s="9" t="s">
         <v>301</v>
@@ -7879,7 +7954,7 @@
     </row>
     <row r="216" spans="1:5" ht="14.4">
       <c r="A216" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B216" s="9" t="s">
         <v>302</v>
@@ -7896,7 +7971,7 @@
     </row>
     <row r="217" spans="1:5" ht="14.4">
       <c r="A217" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B217" s="9" t="s">
         <v>303</v>
@@ -7913,7 +7988,7 @@
     </row>
     <row r="218" spans="1:5" ht="14.4">
       <c r="A218" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B218" s="9" t="s">
         <v>304</v>
@@ -7930,7 +8005,7 @@
     </row>
     <row r="219" spans="1:5" ht="14.4">
       <c r="A219" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B219" s="9" t="s">
         <v>305</v>
@@ -7947,7 +8022,7 @@
     </row>
     <row r="220" spans="1:5" ht="14.4">
       <c r="A220" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B220" s="9" t="s">
         <v>306</v>
@@ -7964,7 +8039,7 @@
     </row>
     <row r="221" spans="1:5" ht="14.4">
       <c r="A221" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B221" s="9" t="s">
         <v>307</v>
@@ -7981,7 +8056,7 @@
     </row>
     <row r="222" spans="1:5" ht="14.4">
       <c r="A222" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B222" s="9" t="s">
         <v>308</v>
@@ -7998,7 +8073,7 @@
     </row>
     <row r="223" spans="1:5" ht="14.4">
       <c r="A223" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B223" s="9" t="s">
         <v>309</v>
@@ -8015,7 +8090,7 @@
     </row>
     <row r="224" spans="1:5" ht="14.4">
       <c r="A224" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B224" s="9" t="s">
         <v>310</v>
@@ -8032,7 +8107,7 @@
     </row>
     <row r="225" spans="1:5" ht="14.4">
       <c r="A225" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B225" s="9" t="s">
         <v>311</v>
@@ -8049,7 +8124,7 @@
     </row>
     <row r="226" spans="1:5" ht="14.4">
       <c r="A226" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B226" s="9" t="s">
         <v>312</v>
@@ -8066,7 +8141,7 @@
     </row>
     <row r="227" spans="1:5" ht="14.4">
       <c r="A227" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B227" s="9" t="s">
         <v>313</v>
@@ -8083,7 +8158,7 @@
     </row>
     <row r="228" spans="1:5" ht="14.4">
       <c r="A228" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>314</v>
@@ -8100,7 +8175,7 @@
     </row>
     <row r="229" spans="1:5" ht="14.4">
       <c r="A229" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B229" s="9" t="s">
         <v>315</v>
@@ -8117,7 +8192,7 @@
     </row>
     <row r="230" spans="1:5" ht="14.4">
       <c r="A230" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B230" s="9" t="s">
         <v>316</v>
@@ -8134,7 +8209,7 @@
     </row>
     <row r="231" spans="1:5" ht="14.4">
       <c r="A231" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B231" s="9" t="s">
         <v>317</v>
@@ -8151,7 +8226,7 @@
     </row>
     <row r="232" spans="1:5" ht="14.4">
       <c r="A232" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B232" s="9" t="s">
         <v>318</v>
@@ -8168,7 +8243,7 @@
     </row>
     <row r="233" spans="1:5" ht="14.4">
       <c r="A233" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B233" s="9" t="s">
         <v>319</v>
@@ -8185,7 +8260,7 @@
     </row>
     <row r="234" spans="1:5" ht="14.4">
       <c r="A234" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B234" s="9" t="s">
         <v>320</v>
@@ -8202,7 +8277,7 @@
     </row>
     <row r="235" spans="1:5" ht="14.4">
       <c r="A235" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B235" s="9" t="s">
         <v>321</v>
@@ -8219,7 +8294,7 @@
     </row>
     <row r="236" spans="1:5" ht="14.4">
       <c r="A236" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B236" s="9" t="s">
         <v>322</v>
@@ -8236,7 +8311,7 @@
     </row>
     <row r="237" spans="1:5" ht="14.4">
       <c r="A237" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B237" s="9" t="s">
         <v>323</v>
@@ -8253,7 +8328,7 @@
     </row>
     <row r="238" spans="1:5" ht="14.4">
       <c r="A238" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B238" s="9" t="s">
         <v>324</v>
@@ -8270,7 +8345,7 @@
     </row>
     <row r="239" spans="1:5" ht="14.4">
       <c r="A239" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B239" s="9" t="s">
         <v>325</v>
@@ -8287,7 +8362,7 @@
     </row>
     <row r="240" spans="1:5" ht="14.4">
       <c r="A240" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B240" s="9" t="s">
         <v>326</v>
@@ -8304,7 +8379,7 @@
     </row>
     <row r="241" spans="1:5" ht="14.4">
       <c r="A241" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B241" s="9" t="s">
         <v>327</v>
@@ -8321,7 +8396,7 @@
     </row>
     <row r="242" spans="1:5" ht="14.4">
       <c r="A242" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B242" s="9" t="s">
         <v>328</v>
@@ -8338,7 +8413,7 @@
     </row>
     <row r="243" spans="1:5" ht="14.4">
       <c r="A243" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B243" s="9" t="s">
         <v>329</v>
@@ -8355,7 +8430,7 @@
     </row>
     <row r="244" spans="1:5" ht="14.4">
       <c r="A244" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B244" s="9" t="s">
         <v>330</v>
@@ -8372,7 +8447,7 @@
     </row>
     <row r="245" spans="1:5" ht="14.4">
       <c r="A245" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B245" s="9" t="s">
         <v>331</v>
@@ -8389,7 +8464,7 @@
     </row>
     <row r="246" spans="1:5" ht="14.4">
       <c r="A246" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B246" s="9" t="s">
         <v>332</v>
@@ -8406,7 +8481,7 @@
     </row>
     <row r="247" spans="1:5" ht="14.4">
       <c r="A247" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B247" s="9" t="s">
         <v>333</v>
@@ -8423,7 +8498,7 @@
     </row>
     <row r="248" spans="1:5" ht="14.4">
       <c r="A248" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B248" s="9" t="s">
         <v>334</v>
@@ -8440,7 +8515,7 @@
     </row>
     <row r="249" spans="1:5" ht="14.4">
       <c r="A249" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B249" s="9" t="s">
         <v>335</v>
@@ -8457,7 +8532,7 @@
     </row>
     <row r="250" spans="1:5" ht="14.4">
       <c r="A250" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B250" s="9" t="s">
         <v>336</v>
@@ -8474,7 +8549,7 @@
     </row>
     <row r="251" spans="1:5" ht="14.4">
       <c r="A251" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B251" s="9" t="s">
         <v>337</v>
@@ -8491,7 +8566,7 @@
     </row>
     <row r="252" spans="1:5" ht="14.4">
       <c r="A252" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B252" s="9" t="s">
         <v>338</v>
@@ -8508,7 +8583,7 @@
     </row>
     <row r="253" spans="1:5" ht="14.4">
       <c r="A253" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B253" s="9" t="s">
         <v>339</v>
@@ -8525,7 +8600,7 @@
     </row>
     <row r="254" spans="1:5" ht="14.4">
       <c r="A254" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B254" s="9" t="s">
         <v>340</v>
@@ -8542,7 +8617,7 @@
     </row>
     <row r="255" spans="1:5" ht="14.4">
       <c r="A255" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B255" s="9" t="s">
         <v>341</v>
@@ -8559,7 +8634,7 @@
     </row>
     <row r="256" spans="1:5" ht="14.4">
       <c r="A256" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B256" s="9" t="s">
         <v>342</v>
@@ -8576,7 +8651,7 @@
     </row>
     <row r="257" spans="1:5" ht="14.4">
       <c r="A257" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B257" s="9" t="s">
         <v>343</v>
@@ -8593,7 +8668,7 @@
     </row>
     <row r="258" spans="1:5" ht="14.4">
       <c r="A258" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B258" s="9" t="s">
         <v>344</v>
@@ -8610,7 +8685,7 @@
     </row>
     <row r="259" spans="1:5" ht="14.4">
       <c r="A259" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B259" s="9" t="s">
         <v>345</v>
@@ -8627,7 +8702,7 @@
     </row>
     <row r="260" spans="1:5" ht="14.4">
       <c r="A260" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B260" s="9" t="s">
         <v>346</v>
@@ -8644,7 +8719,7 @@
     </row>
     <row r="261" spans="1:5" ht="14.4">
       <c r="A261" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B261" s="9" t="s">
         <v>347</v>
@@ -8661,7 +8736,7 @@
     </row>
     <row r="262" spans="1:5" ht="14.4">
       <c r="A262" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B262" s="9" t="s">
         <v>56</v>
@@ -8678,7 +8753,7 @@
     </row>
     <row r="263" spans="1:5" ht="14.4">
       <c r="A263" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B263" s="9" t="s">
         <v>348</v>
@@ -8695,7 +8770,7 @@
     </row>
     <row r="264" spans="1:5" ht="14.4">
       <c r="A264" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B264" s="9" t="s">
         <v>349</v>
@@ -8712,7 +8787,7 @@
     </row>
     <row r="265" spans="1:5" ht="14.4">
       <c r="A265" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B265" s="9" t="s">
         <v>350</v>
@@ -8729,7 +8804,7 @@
     </row>
     <row r="266" spans="1:5" ht="14.4">
       <c r="A266" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B266" s="9" t="s">
         <v>351</v>
@@ -8746,7 +8821,7 @@
     </row>
     <row r="267" spans="1:5" ht="14.4">
       <c r="A267" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B267" s="9" t="s">
         <v>352</v>
@@ -8763,7 +8838,7 @@
     </row>
     <row r="268" spans="1:5" ht="14.4">
       <c r="A268" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B268" s="9" t="s">
         <v>353</v>
@@ -8780,7 +8855,7 @@
     </row>
     <row r="269" spans="1:5" ht="14.4">
       <c r="A269" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B269" s="9" t="s">
         <v>354</v>
@@ -8797,7 +8872,7 @@
     </row>
     <row r="270" spans="1:5" ht="14.4">
       <c r="A270" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B270" s="9" t="s">
         <v>355</v>
@@ -8814,7 +8889,7 @@
     </row>
     <row r="271" spans="1:5" ht="14.4">
       <c r="A271" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B271" s="9" t="s">
         <v>356</v>
@@ -8831,7 +8906,7 @@
     </row>
     <row r="272" spans="1:5" ht="14.4">
       <c r="A272" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B272" s="9" t="s">
         <v>357</v>
@@ -8848,7 +8923,7 @@
     </row>
     <row r="273" spans="1:5" ht="14.4">
       <c r="A273" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B273" s="9" t="s">
         <v>358</v>
@@ -8865,7 +8940,7 @@
     </row>
     <row r="274" spans="1:5" ht="14.4">
       <c r="A274" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B274" s="9" t="s">
         <v>359</v>
@@ -8882,7 +8957,7 @@
     </row>
     <row r="275" spans="1:5" ht="14.4">
       <c r="A275" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B275" s="9" t="s">
         <v>360</v>
@@ -8899,7 +8974,7 @@
     </row>
     <row r="276" spans="1:5" ht="14.4">
       <c r="A276" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B276" s="9" t="s">
         <v>361</v>
@@ -8916,7 +8991,7 @@
     </row>
     <row r="277" spans="1:5" ht="14.4">
       <c r="A277" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B277" s="9" t="s">
         <v>362</v>
@@ -8933,7 +9008,7 @@
     </row>
     <row r="278" spans="1:5" ht="14.4">
       <c r="A278" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B278" s="9" t="s">
         <v>363</v>
@@ -8950,7 +9025,7 @@
     </row>
     <row r="279" spans="1:5" ht="14.4">
       <c r="A279" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B279" s="9">
         <v>777</v>
@@ -8967,7 +9042,7 @@
     </row>
     <row r="280" spans="1:5" ht="14.4">
       <c r="A280" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B280" s="9" t="s">
         <v>364</v>
@@ -8984,7 +9059,7 @@
     </row>
     <row r="281" spans="1:5" ht="14.4">
       <c r="A281" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B281" s="9" t="s">
         <v>365</v>
@@ -9001,7 +9076,7 @@
     </row>
     <row r="282" spans="1:5" ht="14.4">
       <c r="A282" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B282" s="9" t="s">
         <v>366</v>
@@ -9018,7 +9093,7 @@
     </row>
     <row r="283" spans="1:5" ht="14.4">
       <c r="A283" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B283" s="9" t="s">
         <v>367</v>
@@ -9035,7 +9110,7 @@
     </row>
     <row r="284" spans="1:5" ht="14.4">
       <c r="A284" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B284" s="9" t="s">
         <v>368</v>
@@ -9052,7 +9127,7 @@
     </row>
     <row r="285" spans="1:5" ht="14.4">
       <c r="A285" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B285" s="9" t="s">
         <v>369</v>
@@ -9069,7 +9144,7 @@
     </row>
     <row r="286" spans="1:5" ht="14.4">
       <c r="A286" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B286" s="9" t="s">
         <v>370</v>
@@ -9086,7 +9161,7 @@
     </row>
     <row r="287" spans="1:5" ht="14.4">
       <c r="A287" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B287" s="9" t="s">
         <v>371</v>
@@ -9103,7 +9178,7 @@
     </row>
     <row r="288" spans="1:5" ht="14.4">
       <c r="A288" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B288" s="9" t="s">
         <v>372</v>
@@ -9120,7 +9195,7 @@
     </row>
     <row r="289" spans="1:5" ht="14.4">
       <c r="A289" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B289" s="9" t="s">
         <v>373</v>
@@ -9137,7 +9212,7 @@
     </row>
     <row r="290" spans="1:5" ht="14.4">
       <c r="A290" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B290" s="9" t="s">
         <v>374</v>
@@ -9154,7 +9229,7 @@
     </row>
     <row r="291" spans="1:5" ht="14.4">
       <c r="A291" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B291" s="9" t="s">
         <v>375</v>
@@ -9171,7 +9246,7 @@
     </row>
     <row r="292" spans="1:5" ht="14.4">
       <c r="A292" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B292" s="9" t="s">
         <v>376</v>
@@ -9188,7 +9263,7 @@
     </row>
     <row r="293" spans="1:5" ht="14.4">
       <c r="A293" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B293" s="9" t="s">
         <v>377</v>
@@ -9205,7 +9280,7 @@
     </row>
     <row r="294" spans="1:5" ht="14.4">
       <c r="A294" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B294" s="9" t="s">
         <v>378</v>
@@ -9222,7 +9297,7 @@
     </row>
     <row r="295" spans="1:5" ht="14.4">
       <c r="A295" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B295" s="9" t="s">
         <v>379</v>
@@ -9239,7 +9314,7 @@
     </row>
     <row r="296" spans="1:5" ht="14.4">
       <c r="A296" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B296" s="9" t="s">
         <v>380</v>
@@ -9256,7 +9331,7 @@
     </row>
     <row r="297" spans="1:5" ht="14.4">
       <c r="A297" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B297" s="9" t="s">
         <v>381</v>
@@ -9273,7 +9348,7 @@
     </row>
     <row r="298" spans="1:5" ht="14.4">
       <c r="A298" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B298" s="9" t="s">
         <v>382</v>
@@ -9290,7 +9365,7 @@
     </row>
     <row r="299" spans="1:5" ht="14.4">
       <c r="A299" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B299" s="9" t="s">
         <v>383</v>
@@ -9307,7 +9382,7 @@
     </row>
     <row r="300" spans="1:5" ht="14.4">
       <c r="A300" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B300" s="9" t="s">
         <v>384</v>
@@ -9324,7 +9399,7 @@
     </row>
     <row r="301" spans="1:5" ht="14.4">
       <c r="A301" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B301" s="9" t="s">
         <v>385</v>
@@ -9341,7 +9416,7 @@
     </row>
     <row r="302" spans="1:5" ht="14.4">
       <c r="A302" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B302" s="9" t="s">
         <v>386</v>
@@ -9358,7 +9433,7 @@
     </row>
     <row r="303" spans="1:5" ht="14.4">
       <c r="A303" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B303" s="9" t="s">
         <v>387</v>
@@ -9375,7 +9450,7 @@
     </row>
     <row r="304" spans="1:5" ht="14.4">
       <c r="A304" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B304" s="9" t="s">
         <v>388</v>
@@ -9392,7 +9467,7 @@
     </row>
     <row r="305" spans="1:5" ht="14.4">
       <c r="A305" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B305" s="9" t="s">
         <v>389</v>
@@ -9409,7 +9484,7 @@
     </row>
     <row r="306" spans="1:5" ht="14.4">
       <c r="A306" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B306" s="9" t="s">
         <v>390</v>
@@ -9426,7 +9501,7 @@
     </row>
     <row r="307" spans="1:5" ht="14.4">
       <c r="A307" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B307" s="9" t="s">
         <v>391</v>
@@ -9443,7 +9518,7 @@
     </row>
     <row r="308" spans="1:5" ht="14.4">
       <c r="A308" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B308" s="9" t="s">
         <v>392</v>
@@ -9460,7 +9535,7 @@
     </row>
     <row r="309" spans="1:5" ht="14.4">
       <c r="A309" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B309" s="9" t="s">
         <v>393</v>
@@ -9477,7 +9552,7 @@
     </row>
     <row r="310" spans="1:5" ht="14.4">
       <c r="A310" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B310" s="9" t="s">
         <v>394</v>
@@ -9494,7 +9569,7 @@
     </row>
     <row r="311" spans="1:5" ht="14.4">
       <c r="A311" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B311" s="9" t="s">
         <v>395</v>
@@ -9511,7 +9586,7 @@
     </row>
     <row r="312" spans="1:5" ht="14.4">
       <c r="A312" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B312" s="9" t="s">
         <v>396</v>
@@ -9528,7 +9603,7 @@
     </row>
     <row r="313" spans="1:5" ht="14.4">
       <c r="A313" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B313" s="9" t="s">
         <v>397</v>
@@ -9545,7 +9620,7 @@
     </row>
     <row r="314" spans="1:5" ht="14.4">
       <c r="A314" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B314" s="9" t="s">
         <v>398</v>
@@ -9562,7 +9637,7 @@
     </row>
     <row r="315" spans="1:5" ht="14.4">
       <c r="A315" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B315" s="9" t="s">
         <v>78</v>
@@ -9579,7 +9654,7 @@
     </row>
     <row r="316" spans="1:5" ht="14.4">
       <c r="A316" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B316" s="9" t="s">
         <v>399</v>
@@ -9596,7 +9671,7 @@
     </row>
     <row r="317" spans="1:5" ht="14.4">
       <c r="A317" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B317" s="9" t="s">
         <v>400</v>
@@ -9613,7 +9688,7 @@
     </row>
     <row r="318" spans="1:5" ht="14.4">
       <c r="A318" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B318" s="9" t="s">
         <v>401</v>
@@ -9630,7 +9705,7 @@
     </row>
     <row r="319" spans="1:5" ht="14.4">
       <c r="A319" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B319" s="9" t="s">
         <v>402</v>
@@ -9647,7 +9722,7 @@
     </row>
     <row r="320" spans="1:5" ht="14.4">
       <c r="A320" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B320" s="9" t="s">
         <v>403</v>
@@ -9664,7 +9739,7 @@
     </row>
     <row r="321" spans="1:5" ht="14.4">
       <c r="A321" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B321" s="9" t="s">
         <v>404</v>
@@ -9681,7 +9756,7 @@
     </row>
     <row r="322" spans="1:5" ht="14.4">
       <c r="A322" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B322" s="9" t="s">
         <v>405</v>
@@ -9698,7 +9773,7 @@
     </row>
     <row r="323" spans="1:5" ht="14.4">
       <c r="A323" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B323" s="9" t="s">
         <v>406</v>
@@ -9715,7 +9790,7 @@
     </row>
     <row r="324" spans="1:5" ht="14.4">
       <c r="A324" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B324" s="9" t="s">
         <v>407</v>
@@ -9732,7 +9807,7 @@
     </row>
     <row r="325" spans="1:5" ht="14.4">
       <c r="A325" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B325" s="9" t="s">
         <v>408</v>
@@ -9749,7 +9824,7 @@
     </row>
     <row r="326" spans="1:5" ht="14.4">
       <c r="A326" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B326" s="9" t="s">
         <v>409</v>
@@ -9766,7 +9841,7 @@
     </row>
     <row r="327" spans="1:5" ht="14.4">
       <c r="A327" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B327" s="9" t="s">
         <v>410</v>
@@ -9783,7 +9858,7 @@
     </row>
     <row r="328" spans="1:5" ht="14.4">
       <c r="A328" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B328" s="9" t="s">
         <v>411</v>
@@ -9800,7 +9875,7 @@
     </row>
     <row r="329" spans="1:5" ht="14.4">
       <c r="A329" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B329" s="9" t="s">
         <v>412</v>
@@ -9817,7 +9892,7 @@
     </row>
     <row r="330" spans="1:5" ht="14.4">
       <c r="A330" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B330" s="9" t="s">
         <v>413</v>
@@ -9834,7 +9909,7 @@
     </row>
     <row r="331" spans="1:5" ht="14.4">
       <c r="A331" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B331" s="9" t="s">
         <v>414</v>
@@ -9851,7 +9926,7 @@
     </row>
     <row r="332" spans="1:5" ht="14.4">
       <c r="A332" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B332" s="9" t="s">
         <v>415</v>
@@ -9868,7 +9943,7 @@
     </row>
     <row r="333" spans="1:5" ht="14.4">
       <c r="A333" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B333" s="9" t="s">
         <v>416</v>
@@ -9885,7 +9960,7 @@
     </row>
     <row r="334" spans="1:5" ht="14.4">
       <c r="A334" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B334" s="9" t="s">
         <v>417</v>
@@ -9902,7 +9977,7 @@
     </row>
     <row r="335" spans="1:5" ht="14.4">
       <c r="A335" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B335" s="9" t="s">
         <v>418</v>
@@ -9919,7 +9994,7 @@
     </row>
     <row r="336" spans="1:5" ht="14.4">
       <c r="A336" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B336" s="9" t="s">
         <v>1002</v>
@@ -9933,6 +10008,253 @@
       <c r="E336" s="9" t="s">
         <v>1001</v>
       </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="18">
+        <v>1</v>
+      </c>
+      <c r="B337" s="18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C337" s="18">
+        <v>101</v>
+      </c>
+      <c r="D337" s="18">
+        <v>1</v>
+      </c>
+      <c r="E337" s="18" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F337" s="18"/>
+      <c r="G337" s="18"/>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="18">
+        <v>1</v>
+      </c>
+      <c r="B338" s="18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C338" s="18">
+        <v>102</v>
+      </c>
+      <c r="D338" s="18">
+        <v>1</v>
+      </c>
+      <c r="E338" s="18" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F338" s="18"/>
+      <c r="G338" s="18"/>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="18">
+        <v>1</v>
+      </c>
+      <c r="B339" s="18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C339" s="18">
+        <v>103</v>
+      </c>
+      <c r="D339" s="18">
+        <v>1</v>
+      </c>
+      <c r="E339" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F339" s="18"/>
+      <c r="G339" s="18"/>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="18">
+        <v>1</v>
+      </c>
+      <c r="B340" s="18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C340" s="18">
+        <v>104</v>
+      </c>
+      <c r="D340" s="18">
+        <v>1</v>
+      </c>
+      <c r="E340" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F340" s="18"/>
+      <c r="G340" s="18"/>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="18">
+        <v>1</v>
+      </c>
+      <c r="B341" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C341" s="18">
+        <v>105</v>
+      </c>
+      <c r="D341" s="18">
+        <v>1</v>
+      </c>
+      <c r="E341" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F341" s="18"/>
+      <c r="G341" s="18"/>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="18">
+        <v>1</v>
+      </c>
+      <c r="B342" s="18" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C342" s="18">
+        <v>106</v>
+      </c>
+      <c r="D342" s="18">
+        <v>1</v>
+      </c>
+      <c r="E342" s="18" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F342" s="18"/>
+      <c r="G342" s="18"/>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="18">
+        <v>1</v>
+      </c>
+      <c r="B343" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C343" s="18">
+        <v>107</v>
+      </c>
+      <c r="D343" s="18">
+        <v>1</v>
+      </c>
+      <c r="E343" s="18" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F343" s="18"/>
+      <c r="G343" s="18"/>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="18">
+        <v>1</v>
+      </c>
+      <c r="B344" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C344" s="18">
+        <v>108</v>
+      </c>
+      <c r="D344" s="18">
+        <v>1</v>
+      </c>
+      <c r="E344" s="18" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F344" s="18"/>
+      <c r="G344" s="18"/>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="18">
+        <v>1</v>
+      </c>
+      <c r="B345" s="18" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C345" s="18">
+        <v>110</v>
+      </c>
+      <c r="D345" s="18">
+        <v>1</v>
+      </c>
+      <c r="E345" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F345" s="18"/>
+      <c r="G345" s="18"/>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="18">
+        <v>1</v>
+      </c>
+      <c r="B346" s="18" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C346" s="18">
+        <v>111</v>
+      </c>
+      <c r="D346" s="18">
+        <v>1</v>
+      </c>
+      <c r="E346" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F346" s="18"/>
+      <c r="G346" s="18"/>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="18">
+        <v>1</v>
+      </c>
+      <c r="B347" s="18" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C347" s="18">
+        <v>112</v>
+      </c>
+      <c r="D347" s="18">
+        <v>1</v>
+      </c>
+      <c r="E347" s="18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F347" s="18"/>
+      <c r="G347" s="18"/>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="18">
+        <v>1</v>
+      </c>
+      <c r="B348" s="18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C348" s="18">
+        <v>113</v>
+      </c>
+      <c r="D348" s="18">
+        <v>1</v>
+      </c>
+      <c r="E348" s="18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F348" s="18"/>
+      <c r="G348" s="18"/>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="18">
+        <v>1</v>
+      </c>
+      <c r="B349" s="18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C349" s="18">
+        <v>128</v>
+      </c>
+      <c r="D349" s="18">
+        <v>1</v>
+      </c>
+      <c r="E349" s="18" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F349" s="18"/>
+      <c r="G349" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/casino/casino-admin/src/main/resources/excleTemplate/gameList.xlsx
+++ b/casino/casino-admin/src/main/resources/excleTemplate/gameList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86176\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49B91E2-60B7-48C3-8871-7F1723F3D1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E4C57F-981D-45D4-90FD-55B7C32B9B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="1032">
   <si>
     <t>平台id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3695,6 +3695,22 @@
   </si>
   <si>
     <t>AndarBahar</t>
+  </si>
+  <si>
+    <t>平台名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CQ9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4284,8 +4300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="D350" sqref="D350"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4295,9 +4311,10 @@
     <col min="3" max="3" width="21.21875" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4313,8 +4330,11 @@
       <c r="E1" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.4">
+      <c r="F1" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.4">
       <c r="A2" s="18">
         <v>2</v>
       </c>
@@ -4330,8 +4350,11 @@
       <c r="E2" s="15" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.4">
+      <c r="F2" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.4">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -4347,8 +4370,11 @@
       <c r="E3" s="16" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.4">
+      <c r="F3" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.4">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -4364,8 +4390,11 @@
       <c r="E4" s="16" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.4">
+      <c r="F4" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.4">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -4381,8 +4410,11 @@
       <c r="E5" s="16" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.4">
+      <c r="F5" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.4">
       <c r="A6" s="18">
         <v>2</v>
       </c>
@@ -4398,8 +4430,11 @@
       <c r="E6" s="16" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.4">
+      <c r="F6" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4">
       <c r="A7" s="18">
         <v>2</v>
       </c>
@@ -4415,8 +4450,11 @@
       <c r="E7" s="16" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.4">
+      <c r="F7" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.4">
       <c r="A8" s="18">
         <v>2</v>
       </c>
@@ -4432,8 +4470,11 @@
       <c r="E8" s="16" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.4">
+      <c r="F8" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.4">
       <c r="A9" s="18">
         <v>2</v>
       </c>
@@ -4449,8 +4490,11 @@
       <c r="E9" s="16" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.4">
+      <c r="F9" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.4">
       <c r="A10" s="18">
         <v>2</v>
       </c>
@@ -4466,8 +4510,11 @@
       <c r="E10" s="16" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.4">
+      <c r="F10" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.4">
       <c r="A11" s="18">
         <v>2</v>
       </c>
@@ -4483,8 +4530,11 @@
       <c r="E11" s="16" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.4">
+      <c r="F11" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.4">
       <c r="A12" s="18">
         <v>2</v>
       </c>
@@ -4500,8 +4550,11 @@
       <c r="E12" s="4" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.4">
+      <c r="F12" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.4">
       <c r="A13" s="18">
         <v>2</v>
       </c>
@@ -4517,8 +4570,11 @@
       <c r="E13" s="4" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.4">
+      <c r="F13" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.4">
       <c r="A14" s="18">
         <v>2</v>
       </c>
@@ -4534,8 +4590,11 @@
       <c r="E14" s="4" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.4">
+      <c r="F14" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.4">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -4551,8 +4610,11 @@
       <c r="E15" s="4" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.4">
+      <c r="F15" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.4">
       <c r="A16" s="18">
         <v>2</v>
       </c>
@@ -4568,8 +4630,11 @@
       <c r="E16" s="4" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.4">
+      <c r="F16" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.4">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -4585,8 +4650,11 @@
       <c r="E17" s="4" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.4">
+      <c r="F17" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.4">
       <c r="A18" s="18">
         <v>2</v>
       </c>
@@ -4602,8 +4670,11 @@
       <c r="E18" s="4" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.4">
+      <c r="F18" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.4">
       <c r="A19" s="18">
         <v>2</v>
       </c>
@@ -4619,8 +4690,11 @@
       <c r="E19" s="4" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.4">
+      <c r="F19" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.4">
       <c r="A20" s="18">
         <v>2</v>
       </c>
@@ -4636,8 +4710,11 @@
       <c r="E20" s="4" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.4">
+      <c r="F20" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.4">
       <c r="A21" s="18">
         <v>2</v>
       </c>
@@ -4653,8 +4730,11 @@
       <c r="E21" s="4" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.4">
+      <c r="F21" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.4">
       <c r="A22" s="18">
         <v>2</v>
       </c>
@@ -4670,8 +4750,11 @@
       <c r="E22" s="4" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.4">
+      <c r="F22" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.4">
       <c r="A23" s="18">
         <v>2</v>
       </c>
@@ -4687,8 +4770,11 @@
       <c r="E23" s="4" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.4">
+      <c r="F23" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.4">
       <c r="A24" s="18">
         <v>2</v>
       </c>
@@ -4704,8 +4790,11 @@
       <c r="E24" s="4" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.4">
+      <c r="F24" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.4">
       <c r="A25" s="18">
         <v>2</v>
       </c>
@@ -4721,8 +4810,11 @@
       <c r="E25" s="16" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.4">
+      <c r="F25" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.4">
       <c r="A26" s="18">
         <v>2</v>
       </c>
@@ -4738,8 +4830,11 @@
       <c r="E26" s="16" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.4">
+      <c r="F26" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.4">
       <c r="A27" s="18">
         <v>2</v>
       </c>
@@ -4755,8 +4850,11 @@
       <c r="E27" s="16" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.4">
+      <c r="F27" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.4">
       <c r="A28" s="18">
         <v>2</v>
       </c>
@@ -4772,8 +4870,11 @@
       <c r="E28" s="16" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.4">
+      <c r="F28" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.4">
       <c r="A29" s="18">
         <v>2</v>
       </c>
@@ -4789,8 +4890,11 @@
       <c r="E29" s="16" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.4">
+      <c r="F29" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.4">
       <c r="A30" s="18">
         <v>2</v>
       </c>
@@ -4806,8 +4910,11 @@
       <c r="E30" s="16" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.4">
+      <c r="F30" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.4">
       <c r="A31" s="18">
         <v>2</v>
       </c>
@@ -4823,8 +4930,11 @@
       <c r="E31" s="16" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.4">
+      <c r="F31" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.4">
       <c r="A32" s="18">
         <v>2</v>
       </c>
@@ -4840,8 +4950,11 @@
       <c r="E32" s="16" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.4">
+      <c r="F32" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.4">
       <c r="A33" s="18">
         <v>2</v>
       </c>
@@ -4857,8 +4970,11 @@
       <c r="E33" s="16" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.4">
+      <c r="F33" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.4">
       <c r="A34" s="18">
         <v>2</v>
       </c>
@@ -4874,8 +4990,11 @@
       <c r="E34" s="16" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="14.4">
+      <c r="F34" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.4">
       <c r="A35" s="18">
         <v>2</v>
       </c>
@@ -4891,8 +5010,11 @@
       <c r="E35" s="16" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="18">
         <v>2</v>
       </c>
@@ -4908,8 +5030,11 @@
       <c r="E36" s="6" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="18">
         <v>2</v>
       </c>
@@ -4925,8 +5050,11 @@
       <c r="E37" s="6" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="18">
         <v>2</v>
       </c>
@@ -4942,8 +5070,11 @@
       <c r="E38" s="6" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="18">
         <v>2</v>
       </c>
@@ -4959,8 +5090,11 @@
       <c r="E39" s="6" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.4">
+      <c r="F39" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.4">
       <c r="A40" s="18">
         <v>2</v>
       </c>
@@ -4976,8 +5110,11 @@
       <c r="E40" s="6" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.4">
+      <c r="F40" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.4">
       <c r="A41" s="18">
         <v>2</v>
       </c>
@@ -4993,8 +5130,11 @@
       <c r="E41" s="6" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="14.4">
+      <c r="F41" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.4">
       <c r="A42" s="18">
         <v>2</v>
       </c>
@@ -5010,8 +5150,11 @@
       <c r="E42" s="6" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="14.4">
+      <c r="F42" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.4">
       <c r="A43" s="18">
         <v>2</v>
       </c>
@@ -5027,8 +5170,11 @@
       <c r="E43" s="6" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.4">
+      <c r="F43" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.4">
       <c r="A44" s="18">
         <v>2</v>
       </c>
@@ -5044,8 +5190,11 @@
       <c r="E44" s="6" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="14.4">
+      <c r="F44" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.4">
       <c r="A45" s="18">
         <v>2</v>
       </c>
@@ -5061,8 +5210,11 @@
       <c r="E45" s="6" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="14.4">
+      <c r="F45" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.4">
       <c r="A46" s="18">
         <v>2</v>
       </c>
@@ -5078,8 +5230,11 @@
       <c r="E46" s="6" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="14.4">
+      <c r="F46" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.4">
       <c r="A47" s="18">
         <v>2</v>
       </c>
@@ -5095,8 +5250,11 @@
       <c r="E47" s="6" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="14.4">
+      <c r="F47" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.4">
       <c r="A48" s="18">
         <v>2</v>
       </c>
@@ -5112,8 +5270,11 @@
       <c r="E48" s="16" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="14.4">
+      <c r="F48" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.4">
       <c r="A49" s="18">
         <v>2</v>
       </c>
@@ -5129,8 +5290,11 @@
       <c r="E49" s="16" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="14.4">
+      <c r="F49" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.4">
       <c r="A50" s="18">
         <v>2</v>
       </c>
@@ -5146,8 +5310,11 @@
       <c r="E50" s="9" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="14.4">
+      <c r="F50" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.4">
       <c r="A51" s="18">
         <v>2</v>
       </c>
@@ -5163,8 +5330,11 @@
       <c r="E51" s="9" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="14.4">
+      <c r="F51" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.4">
       <c r="A52" s="18">
         <v>2</v>
       </c>
@@ -5180,8 +5350,11 @@
       <c r="E52" s="9" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="14.4">
+      <c r="F52" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.4">
       <c r="A53" s="18">
         <v>2</v>
       </c>
@@ -5197,8 +5370,11 @@
       <c r="E53" s="9" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="14.4">
+      <c r="F53" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.4">
       <c r="A54" s="18">
         <v>2</v>
       </c>
@@ -5214,8 +5390,11 @@
       <c r="E54" s="9" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="14.4">
+      <c r="F54" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.4">
       <c r="A55" s="18">
         <v>2</v>
       </c>
@@ -5231,8 +5410,11 @@
       <c r="E55" s="9" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="14.4">
+      <c r="F55" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.4">
       <c r="A56" s="18">
         <v>2</v>
       </c>
@@ -5248,8 +5430,11 @@
       <c r="E56" s="25" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="14.4">
+      <c r="F56" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.4">
       <c r="A57" s="18">
         <v>2</v>
       </c>
@@ -5265,8 +5450,11 @@
       <c r="E57" s="25" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="18">
         <v>2</v>
       </c>
@@ -5282,8 +5470,11 @@
       <c r="E58" s="6" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="14.4">
+      <c r="F58" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.4">
       <c r="A59" s="18">
         <v>2</v>
       </c>
@@ -5299,8 +5490,11 @@
       <c r="E59" s="9" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="14.4">
+      <c r="F59" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.4">
       <c r="A60" s="18">
         <v>2</v>
       </c>
@@ -5316,8 +5510,11 @@
       <c r="E60" s="9" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="14.4">
+      <c r="F60" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.4">
       <c r="A61" s="18">
         <v>2</v>
       </c>
@@ -5333,8 +5530,11 @@
       <c r="E61" s="25" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="14.4">
+      <c r="F61" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.4">
       <c r="A62" s="18">
         <v>2</v>
       </c>
@@ -5350,8 +5550,11 @@
       <c r="E62" s="25" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="14.4">
+      <c r="F62" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14.4">
       <c r="A63" s="18">
         <v>2</v>
       </c>
@@ -5367,8 +5570,11 @@
       <c r="E63" s="12" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="14.4">
+      <c r="F63" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.4">
       <c r="A64" s="18">
         <v>2</v>
       </c>
@@ -5384,8 +5590,11 @@
       <c r="E64" s="12" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="14.4">
+      <c r="F64" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14.4">
       <c r="A65" s="18">
         <v>2</v>
       </c>
@@ -5401,8 +5610,11 @@
       <c r="E65" s="12" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="14.4">
+      <c r="F65" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.4">
       <c r="A66" s="18">
         <v>2</v>
       </c>
@@ -5418,8 +5630,11 @@
       <c r="E66" s="12" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="14.4">
+      <c r="F66" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.4">
       <c r="A67" s="18">
         <v>2</v>
       </c>
@@ -5435,8 +5650,11 @@
       <c r="E67" s="12" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="14.4">
+      <c r="F67" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14.4">
       <c r="A68" s="18">
         <v>2</v>
       </c>
@@ -5452,8 +5670,11 @@
       <c r="E68" s="12" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="14.4">
+      <c r="F68" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.4">
       <c r="A69" s="18">
         <v>2</v>
       </c>
@@ -5469,8 +5690,11 @@
       <c r="E69" s="13" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="14.4">
+      <c r="F69" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.4">
       <c r="A70" s="18">
         <v>2</v>
       </c>
@@ -5486,8 +5710,11 @@
       <c r="E70" s="13" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="14.4">
+      <c r="F70" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.4">
       <c r="A71" s="18">
         <v>2</v>
       </c>
@@ -5503,8 +5730,11 @@
       <c r="E71" s="12" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="14.4">
+      <c r="F71" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14.4">
       <c r="A72" s="18">
         <v>2</v>
       </c>
@@ -5520,8 +5750,11 @@
       <c r="E72" s="12" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="14.4">
+      <c r="F72" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.4">
       <c r="A73" s="18">
         <v>2</v>
       </c>
@@ -5537,8 +5770,11 @@
       <c r="E73" s="12" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="14.4">
+      <c r="F73" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.4">
       <c r="A74" s="18">
         <v>2</v>
       </c>
@@ -5554,8 +5790,11 @@
       <c r="E74" s="12" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="14.4">
+      <c r="F74" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.4">
       <c r="A75" s="18">
         <v>2</v>
       </c>
@@ -5571,8 +5810,11 @@
       <c r="E75" s="12" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="14.4">
+      <c r="F75" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.4">
       <c r="A76" s="18">
         <v>2</v>
       </c>
@@ -5588,8 +5830,11 @@
       <c r="E76" s="14" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="14.4">
+      <c r="F76" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.4">
       <c r="A77" s="18">
         <v>2</v>
       </c>
@@ -5605,8 +5850,11 @@
       <c r="E77" s="14" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="14.4">
+      <c r="F77" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.4">
       <c r="A78" s="18">
         <v>2</v>
       </c>
@@ -5622,8 +5870,11 @@
       <c r="E78" s="14" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="14.4">
+      <c r="F78" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="14.4">
       <c r="A79" s="18">
         <v>2</v>
       </c>
@@ -5639,8 +5890,11 @@
       <c r="E79" s="14" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="14.4">
+      <c r="F79" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="14.4">
       <c r="A80" s="18">
         <v>2</v>
       </c>
@@ -5656,8 +5910,11 @@
       <c r="E80" s="14" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="14.4">
+      <c r="F80" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="14.4">
       <c r="A81" s="18">
         <v>2</v>
       </c>
@@ -5673,8 +5930,11 @@
       <c r="E81" s="14" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="14.4">
+      <c r="F81" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="14.4">
       <c r="A82" s="18">
         <v>2</v>
       </c>
@@ -5690,8 +5950,11 @@
       <c r="E82" s="14" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="14.4">
+      <c r="F82" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="14.4">
       <c r="A83" s="18">
         <v>2</v>
       </c>
@@ -5707,8 +5970,11 @@
       <c r="E83" s="14" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="14.4">
+      <c r="F83" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="14.4">
       <c r="A84" s="18">
         <v>2</v>
       </c>
@@ -5724,8 +5990,11 @@
       <c r="E84" s="14" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="14.4">
+      <c r="F84" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="14.4">
       <c r="A85" s="18">
         <v>2</v>
       </c>
@@ -5741,8 +6010,11 @@
       <c r="E85" s="14" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="14.4">
+      <c r="F85" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="14.4">
       <c r="A86" s="18">
         <v>2</v>
       </c>
@@ -5758,8 +6030,11 @@
       <c r="E86" s="14" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="14.4">
+      <c r="F86" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="14.4">
       <c r="A87" s="18">
         <v>3</v>
       </c>
@@ -5775,8 +6050,11 @@
       <c r="E87" s="19" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="14.4">
+      <c r="F87" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="14.4">
       <c r="A88" s="18">
         <v>3</v>
       </c>
@@ -5792,8 +6070,11 @@
       <c r="E88" s="19" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="14.4">
+      <c r="F88" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="14.4">
       <c r="A89" s="18">
         <v>3</v>
       </c>
@@ -5809,8 +6090,11 @@
       <c r="E89" s="19" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="14.4">
+      <c r="F89" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="14.4">
       <c r="A90" s="18">
         <v>3</v>
       </c>
@@ -5826,8 +6110,11 @@
       <c r="E90" s="19" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="14.4">
+      <c r="F90" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="14.4">
       <c r="A91" s="18">
         <v>3</v>
       </c>
@@ -5843,8 +6130,11 @@
       <c r="E91" s="20" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="14.4">
+      <c r="F91" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="14.4">
       <c r="A92" s="18">
         <v>3</v>
       </c>
@@ -5860,8 +6150,11 @@
       <c r="E92" s="20" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="14.4">
+      <c r="F92" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="14.4">
       <c r="A93" s="18">
         <v>3</v>
       </c>
@@ -5877,8 +6170,11 @@
       <c r="E93" s="20" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="14.4">
+      <c r="F93" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="14.4">
       <c r="A94" s="18">
         <v>3</v>
       </c>
@@ -5894,8 +6190,11 @@
       <c r="E94" s="20" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="14.4">
+      <c r="F94" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="14.4">
       <c r="A95" s="18">
         <v>3</v>
       </c>
@@ -5911,8 +6210,11 @@
       <c r="E95" s="20" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="14.4">
+      <c r="F95" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="14.4">
       <c r="A96" s="18">
         <v>3</v>
       </c>
@@ -5928,8 +6230,11 @@
       <c r="E96" s="20" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="14.4">
+      <c r="F96" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="14.4">
       <c r="A97" s="18">
         <v>3</v>
       </c>
@@ -5945,8 +6250,11 @@
       <c r="E97" s="20" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="14.4">
+      <c r="F97" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="14.4">
       <c r="A98" s="18">
         <v>3</v>
       </c>
@@ -5962,8 +6270,11 @@
       <c r="E98" s="20" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="14.4">
+      <c r="F98" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="14.4">
       <c r="A99" s="18">
         <v>3</v>
       </c>
@@ -5979,8 +6290,11 @@
       <c r="E99" s="20" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="14.4">
+      <c r="F99" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="14.4">
       <c r="A100" s="18">
         <v>3</v>
       </c>
@@ -5996,8 +6310,11 @@
       <c r="E100" s="20" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="14.4">
+      <c r="F100" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="14.4">
       <c r="A101" s="18">
         <v>3</v>
       </c>
@@ -6013,8 +6330,11 @@
       <c r="E101" s="20" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="14.4">
+      <c r="F101" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="14.4">
       <c r="A102" s="18">
         <v>3</v>
       </c>
@@ -6030,8 +6350,11 @@
       <c r="E102" s="20" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="14.4">
+      <c r="F102" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="14.4">
       <c r="A103" s="18">
         <v>3</v>
       </c>
@@ -6047,8 +6370,11 @@
       <c r="E103" s="20" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="14.4">
+      <c r="F103" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="14.4">
       <c r="A104" s="18">
         <v>3</v>
       </c>
@@ -6064,8 +6390,11 @@
       <c r="E104" s="20" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="14.4">
+      <c r="F104" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="14.4">
       <c r="A105" s="18">
         <v>3</v>
       </c>
@@ -6081,8 +6410,11 @@
       <c r="E105" s="20" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="14.4">
+      <c r="F105" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="14.4">
       <c r="A106" s="18">
         <v>3</v>
       </c>
@@ -6098,8 +6430,11 @@
       <c r="E106" s="20" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="14.4">
+      <c r="F106" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="14.4">
       <c r="A107" s="18">
         <v>3</v>
       </c>
@@ -6115,8 +6450,11 @@
       <c r="E107" s="20" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="14.4">
+      <c r="F107" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="14.4">
       <c r="A108" s="18">
         <v>3</v>
       </c>
@@ -6132,8 +6470,11 @@
       <c r="E108" s="20" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="14.4">
+      <c r="F108" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="14.4">
       <c r="A109" s="18">
         <v>3</v>
       </c>
@@ -6149,8 +6490,11 @@
       <c r="E109" s="20" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="14.4">
+      <c r="F109" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="14.4">
       <c r="A110" s="18">
         <v>3</v>
       </c>
@@ -6166,8 +6510,11 @@
       <c r="E110" s="20" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="14.4">
+      <c r="F110" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="14.4">
       <c r="A111" s="18">
         <v>3</v>
       </c>
@@ -6183,8 +6530,11 @@
       <c r="E111" s="20" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="14.4">
+      <c r="F111" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="14.4">
       <c r="A112" s="18">
         <v>3</v>
       </c>
@@ -6200,8 +6550,11 @@
       <c r="E112" s="20" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="14.4">
+      <c r="F112" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="14.4">
       <c r="A113" s="18">
         <v>3</v>
       </c>
@@ -6217,8 +6570,11 @@
       <c r="E113" s="20" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="14.4">
+      <c r="F113" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="14.4">
       <c r="A114" s="18">
         <v>3</v>
       </c>
@@ -6234,8 +6590,11 @@
       <c r="E114" s="20" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="14.4">
+      <c r="F114" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="14.4">
       <c r="A115" s="18">
         <v>3</v>
       </c>
@@ -6251,8 +6610,11 @@
       <c r="E115" s="20" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="14.4">
+      <c r="F115" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="14.4">
       <c r="A116" s="18">
         <v>3</v>
       </c>
@@ -6268,8 +6630,11 @@
       <c r="E116" s="20" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="14.4">
+      <c r="F116" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="14.4">
       <c r="A117" s="18">
         <v>3</v>
       </c>
@@ -6285,8 +6650,11 @@
       <c r="E117" s="20" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="14.4">
+      <c r="F117" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="14.4">
       <c r="A118" s="18">
         <v>3</v>
       </c>
@@ -6302,8 +6670,11 @@
       <c r="E118" s="20" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="14.4">
+      <c r="F118" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="14.4">
       <c r="A119" s="18">
         <v>3</v>
       </c>
@@ -6319,8 +6690,11 @@
       <c r="E119" s="20" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="14.4">
+      <c r="F119" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="14.4">
       <c r="A120" s="18">
         <v>3</v>
       </c>
@@ -6336,8 +6710,11 @@
       <c r="E120" s="20" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="14.4">
+      <c r="F120" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="14.4">
       <c r="A121" s="18">
         <v>3</v>
       </c>
@@ -6353,8 +6730,11 @@
       <c r="E121" s="20" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="14.4">
+      <c r="F121" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="14.4">
       <c r="A122" s="18">
         <v>3</v>
       </c>
@@ -6370,8 +6750,11 @@
       <c r="E122" s="20" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="18">
         <v>3</v>
       </c>
@@ -6387,8 +6770,11 @@
       <c r="E123" s="27" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="18">
         <v>3</v>
       </c>
@@ -6404,8 +6790,11 @@
       <c r="E124" s="27" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="18">
         <v>3</v>
       </c>
@@ -6421,8 +6810,11 @@
       <c r="E125" s="27" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="18">
         <v>3</v>
       </c>
@@ -6438,8 +6830,11 @@
       <c r="E126" s="27" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="18">
         <v>3</v>
       </c>
@@ -6455,8 +6850,11 @@
       <c r="E127" s="27" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="14.4">
+      <c r="F127" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="14.4">
       <c r="A128" s="18">
         <v>3</v>
       </c>
@@ -6472,8 +6870,11 @@
       <c r="E128" s="12" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="18">
         <v>3</v>
       </c>
@@ -6489,8 +6890,11 @@
       <c r="E129" s="27" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="18">
         <v>3</v>
       </c>
@@ -6506,8 +6910,11 @@
       <c r="E130" s="21" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="18">
         <v>3</v>
       </c>
@@ -6518,13 +6925,16 @@
         <v>463</v>
       </c>
       <c r="D131" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131" s="21" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="18">
         <v>3</v>
       </c>
@@ -6540,8 +6950,11 @@
       <c r="E132" s="21" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="18">
         <v>3</v>
       </c>
@@ -6557,8 +6970,11 @@
       <c r="E133" s="21" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="18">
         <v>3</v>
       </c>
@@ -6574,8 +6990,11 @@
       <c r="E134" s="21" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="18">
         <v>3</v>
       </c>
@@ -6591,8 +7010,11 @@
       <c r="E135" s="21" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="18">
         <v>3</v>
       </c>
@@ -6608,8 +7030,11 @@
       <c r="E136" s="21" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="18">
         <v>3</v>
       </c>
@@ -6625,8 +7050,11 @@
       <c r="E137" s="21" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="18">
         <v>3</v>
       </c>
@@ -6642,8 +7070,11 @@
       <c r="E138" s="21" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="18">
         <v>3</v>
       </c>
@@ -6659,8 +7090,11 @@
       <c r="E139" s="21" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="18">
         <v>3</v>
       </c>
@@ -6676,8 +7110,11 @@
       <c r="E140" s="21" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="14.4">
+      <c r="F140" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="14.4">
       <c r="A141" s="18">
         <v>3</v>
       </c>
@@ -6693,8 +7130,11 @@
       <c r="E141" s="4" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="18">
         <v>3</v>
       </c>
@@ -6710,8 +7150,11 @@
       <c r="E142" s="21" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="18">
         <v>3</v>
       </c>
@@ -6727,8 +7170,11 @@
       <c r="E143" s="21" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="18">
         <v>3</v>
       </c>
@@ -6744,8 +7190,11 @@
       <c r="E144" s="21" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="18">
         <v>3</v>
       </c>
@@ -6761,8 +7210,11 @@
       <c r="E145" s="21" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="18">
         <v>3</v>
       </c>
@@ -6778,8 +7230,11 @@
       <c r="E146" s="21" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="18">
         <v>3</v>
       </c>
@@ -6795,8 +7250,11 @@
       <c r="E147" s="21" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="18">
         <v>3</v>
       </c>
@@ -6812,8 +7270,11 @@
       <c r="E148" s="21" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="18">
         <v>3</v>
       </c>
@@ -6829,8 +7290,11 @@
       <c r="E149" s="21" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="14.4">
+      <c r="F149" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="14.4">
       <c r="A150" s="18">
         <v>3</v>
       </c>
@@ -6846,8 +7310,11 @@
       <c r="E150" s="16" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="18">
         <v>3</v>
       </c>
@@ -6863,8 +7330,11 @@
       <c r="E151" s="21" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="18">
         <v>3</v>
       </c>
@@ -6880,8 +7350,11 @@
       <c r="E152" s="21" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="18">
         <v>3</v>
       </c>
@@ -6897,8 +7370,11 @@
       <c r="E153" s="21" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="18">
         <v>3</v>
       </c>
@@ -6914,8 +7390,11 @@
       <c r="E154" s="21" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="18">
         <v>3</v>
       </c>
@@ -6931,8 +7410,11 @@
       <c r="E155" s="21" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="18">
         <v>3</v>
       </c>
@@ -6948,8 +7430,11 @@
       <c r="E156" s="21" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="18">
         <v>3</v>
       </c>
@@ -6965,8 +7450,11 @@
       <c r="E157" s="21" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="18">
         <v>3</v>
       </c>
@@ -6982,8 +7470,11 @@
       <c r="E158" s="21" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="18">
         <v>3</v>
       </c>
@@ -6999,8 +7490,11 @@
       <c r="E159" s="21" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="14.4">
+      <c r="F159" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="14.4">
       <c r="A160" s="18">
         <v>3</v>
       </c>
@@ -7016,8 +7510,11 @@
       <c r="E160" s="22" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="14.4">
+      <c r="F160" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="14.4">
       <c r="A161" s="18">
         <v>3</v>
       </c>
@@ -7033,8 +7530,11 @@
       <c r="E161" s="22" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="18">
         <v>3</v>
       </c>
@@ -7050,8 +7550,11 @@
       <c r="E162" s="21" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="14.4">
+      <c r="F162" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="14.4">
       <c r="A163" s="18">
         <v>3</v>
       </c>
@@ -7067,8 +7570,11 @@
       <c r="E163" s="23" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="14.4">
+      <c r="F163" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="14.4">
       <c r="A164" s="18">
         <v>3</v>
       </c>
@@ -7084,8 +7590,11 @@
       <c r="E164" s="23" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="14.4">
+      <c r="F164" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="14.4">
       <c r="A165" s="18">
         <v>3</v>
       </c>
@@ -7101,8 +7610,11 @@
       <c r="E165" s="23" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" ht="14.4">
+      <c r="F165" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="14.4">
       <c r="A166" s="18">
         <v>3</v>
       </c>
@@ -7118,8 +7630,11 @@
       <c r="E166" s="16" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" ht="14.4">
+      <c r="F166" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="14.4">
       <c r="A167" s="18">
         <v>3</v>
       </c>
@@ -7135,8 +7650,11 @@
       <c r="E167" s="23" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="14.4">
+      <c r="F167" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="14.4">
       <c r="A168" s="18">
         <v>3</v>
       </c>
@@ -7152,8 +7670,11 @@
       <c r="E168" s="16" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" ht="14.4">
+      <c r="F168" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="14.4">
       <c r="A169" s="18">
         <v>3</v>
       </c>
@@ -7169,8 +7690,11 @@
       <c r="E169" s="9" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" ht="14.4">
+      <c r="F169" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="14.4">
       <c r="A170" s="18">
         <v>3</v>
       </c>
@@ -7186,8 +7710,11 @@
       <c r="E170" s="9" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" ht="14.4">
+      <c r="F170" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="14.4">
       <c r="A171" s="18">
         <v>3</v>
       </c>
@@ -7203,8 +7730,11 @@
       <c r="E171" s="16" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" ht="14.4">
+      <c r="F171" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="14.4">
       <c r="A172" s="18">
         <v>3</v>
       </c>
@@ -7220,8 +7750,11 @@
       <c r="E172" s="9" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" ht="14.4">
+      <c r="F172" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="14.4">
       <c r="A173" s="18">
         <v>3</v>
       </c>
@@ -7237,8 +7770,11 @@
       <c r="E173" s="24" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="14.4">
+      <c r="F173" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="14.4">
       <c r="A174" s="18">
         <v>3</v>
       </c>
@@ -7254,8 +7790,11 @@
       <c r="E174" s="9" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" ht="14.4">
+      <c r="F174" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="14.4">
       <c r="A175" s="18">
         <v>3</v>
       </c>
@@ -7271,8 +7810,11 @@
       <c r="E175" s="9" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" ht="14.4">
+      <c r="F175" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="14.4">
       <c r="A176" s="18">
         <v>3</v>
       </c>
@@ -7288,8 +7830,11 @@
       <c r="E176" s="9" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" ht="14.4">
+      <c r="F176" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="14.4">
       <c r="A177" s="18">
         <v>3</v>
       </c>
@@ -7305,8 +7850,11 @@
       <c r="E177" s="16" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="14.4">
+      <c r="F177" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="14.4">
       <c r="A178" s="18">
         <v>3</v>
       </c>
@@ -7322,8 +7870,11 @@
       <c r="E178" s="16" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" ht="14.4">
+      <c r="F178" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="14.4">
       <c r="A179" s="18">
         <v>3</v>
       </c>
@@ -7339,8 +7890,11 @@
       <c r="E179" s="9" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" ht="14.4">
+      <c r="F179" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="14.4">
       <c r="A180" s="18">
         <v>3</v>
       </c>
@@ -7356,8 +7910,11 @@
       <c r="E180" s="9" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" ht="14.4">
+      <c r="F180" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="14.4">
       <c r="A181" s="18">
         <v>3</v>
       </c>
@@ -7373,8 +7930,11 @@
       <c r="E181" s="9" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="14.4">
+      <c r="F181" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="14.4">
       <c r="A182" s="18">
         <v>3</v>
       </c>
@@ -7390,8 +7950,11 @@
       <c r="E182" s="9" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" ht="14.4">
+      <c r="F182" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="14.4">
       <c r="A183" s="18">
         <v>3</v>
       </c>
@@ -7407,8 +7970,11 @@
       <c r="E183" s="9" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" ht="14.4">
+      <c r="F183" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="14.4">
       <c r="A184" s="18">
         <v>3</v>
       </c>
@@ -7424,8 +7990,11 @@
       <c r="E184" s="9" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" ht="14.4">
+      <c r="F184" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="14.4">
       <c r="A185" s="18">
         <v>3</v>
       </c>
@@ -7441,8 +8010,11 @@
       <c r="E185" s="16" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" ht="14.4">
+      <c r="F185" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="14.4">
       <c r="A186" s="18">
         <v>3</v>
       </c>
@@ -7458,8 +8030,11 @@
       <c r="E186" s="16" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" ht="14.4">
+      <c r="F186" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="14.4">
       <c r="A187" s="18">
         <v>3</v>
       </c>
@@ -7475,8 +8050,11 @@
       <c r="E187" s="9" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" ht="14.4">
+      <c r="F187" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="14.4">
       <c r="A188" s="18">
         <v>3</v>
       </c>
@@ -7492,8 +8070,11 @@
       <c r="E188" s="9" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" ht="14.4">
+      <c r="F188" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="14.4">
       <c r="A189" s="18">
         <v>3</v>
       </c>
@@ -7509,8 +8090,11 @@
       <c r="E189" s="9" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" ht="14.4">
+      <c r="F189" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="14.4">
       <c r="A190" s="18">
         <v>3</v>
       </c>
@@ -7526,8 +8110,11 @@
       <c r="E190" s="9" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" ht="14.4">
+      <c r="F190" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="14.4">
       <c r="A191" s="18">
         <v>3</v>
       </c>
@@ -7543,8 +8130,11 @@
       <c r="E191" s="9" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" ht="14.4">
+      <c r="F191" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="14.4">
       <c r="A192" s="18">
         <v>3</v>
       </c>
@@ -7560,8 +8150,11 @@
       <c r="E192" s="28" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" ht="14.4">
+      <c r="F192" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="14.4">
       <c r="A193" s="18">
         <v>3</v>
       </c>
@@ -7577,8 +8170,11 @@
       <c r="E193" s="16" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" ht="14.4">
+      <c r="F193" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="14.4">
       <c r="A194" s="18">
         <v>3</v>
       </c>
@@ -7594,8 +8190,11 @@
       <c r="E194" s="16" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" ht="14.4">
+      <c r="F194" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="14.4">
       <c r="A195" s="18">
         <v>3</v>
       </c>
@@ -7611,8 +8210,11 @@
       <c r="E195" s="16" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" ht="14.4">
+      <c r="F195" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="14.4">
       <c r="A196" s="18">
         <v>3</v>
       </c>
@@ -7628,8 +8230,11 @@
       <c r="E196" s="11" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" ht="14.4">
+      <c r="F196" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="14.4">
       <c r="A197" s="18">
         <v>3</v>
       </c>
@@ -7645,8 +8250,11 @@
       <c r="E197" s="9" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" ht="14.4">
+      <c r="F197" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="14.4">
       <c r="A198" s="18">
         <v>3</v>
       </c>
@@ -7662,8 +8270,11 @@
       <c r="E198" s="16" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" ht="14.4">
+      <c r="F198" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="14.4">
       <c r="A199" s="18">
         <v>3</v>
       </c>
@@ -7679,8 +8290,11 @@
       <c r="E199" s="9" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" ht="14.4">
+      <c r="F199" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="14.4">
       <c r="A200" s="18">
         <v>3</v>
       </c>
@@ -7696,8 +8310,11 @@
       <c r="E200" s="9" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" ht="14.4">
+      <c r="F200" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="14.4">
       <c r="A201" s="18">
         <v>3</v>
       </c>
@@ -7713,8 +8330,11 @@
       <c r="E201" s="9" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" ht="14.4">
+      <c r="F201" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="14.4">
       <c r="A202" s="18">
         <v>3</v>
       </c>
@@ -7730,8 +8350,11 @@
       <c r="E202" s="9" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" ht="14.4">
+      <c r="F202" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="14.4">
       <c r="A203" s="18">
         <v>3</v>
       </c>
@@ -7747,8 +8370,11 @@
       <c r="E203" s="25" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" ht="14.4">
+      <c r="F203" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="14.4">
       <c r="A204" s="18">
         <v>3</v>
       </c>
@@ -7764,8 +8390,11 @@
       <c r="E204" s="16" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" ht="14.4">
+      <c r="F204" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="14.4">
       <c r="A205" s="18">
         <v>3</v>
       </c>
@@ -7781,8 +8410,11 @@
       <c r="E205" s="16" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" ht="14.4">
+      <c r="F205" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="14.4">
       <c r="A206" s="18">
         <v>3</v>
       </c>
@@ -7798,8 +8430,11 @@
       <c r="E206" s="16" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" ht="14.4">
+      <c r="F206" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="14.4">
       <c r="A207" s="18">
         <v>3</v>
       </c>
@@ -7815,8 +8450,11 @@
       <c r="E207" s="16" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" ht="14.4">
+      <c r="F207" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="14.4">
       <c r="A208" s="18">
         <v>3</v>
       </c>
@@ -7832,8 +8470,11 @@
       <c r="E208" s="16" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" ht="14.4">
+      <c r="F208" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="14.4">
       <c r="A209" s="18">
         <v>3</v>
       </c>
@@ -7849,8 +8490,11 @@
       <c r="E209" s="9" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" ht="14.4">
+      <c r="F209" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="14.4">
       <c r="A210" s="18">
         <v>3</v>
       </c>
@@ -7866,8 +8510,11 @@
       <c r="E210" s="9" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="14.4">
+      <c r="F210" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="14.4">
       <c r="A211" s="18">
         <v>3</v>
       </c>
@@ -7883,8 +8530,11 @@
       <c r="E211" s="9" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" ht="14.4">
+      <c r="F211" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="14.4">
       <c r="A212" s="18">
         <v>3</v>
       </c>
@@ -7900,8 +8550,11 @@
       <c r="E212" s="23" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" ht="14.4">
+      <c r="F212" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="14.4">
       <c r="A213" s="18">
         <v>3</v>
       </c>
@@ -7917,8 +8570,11 @@
       <c r="E213" s="23" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" ht="14.4">
+      <c r="F213" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="14.4">
       <c r="A214" s="18">
         <v>3</v>
       </c>
@@ -7934,8 +8590,11 @@
       <c r="E214" s="9" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" ht="14.4">
+      <c r="F214" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="14.4">
       <c r="A215" s="18">
         <v>3</v>
       </c>
@@ -7951,8 +8610,11 @@
       <c r="E215" s="9" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" ht="14.4">
+      <c r="F215" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="14.4">
       <c r="A216" s="18">
         <v>3</v>
       </c>
@@ -7968,8 +8630,11 @@
       <c r="E216" s="9" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" ht="14.4">
+      <c r="F216" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="14.4">
       <c r="A217" s="18">
         <v>3</v>
       </c>
@@ -7985,8 +8650,11 @@
       <c r="E217" s="9" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" ht="14.4">
+      <c r="F217" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="14.4">
       <c r="A218" s="18">
         <v>3</v>
       </c>
@@ -8002,8 +8670,11 @@
       <c r="E218" s="9" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" ht="14.4">
+      <c r="F218" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="14.4">
       <c r="A219" s="18">
         <v>3</v>
       </c>
@@ -8019,8 +8690,11 @@
       <c r="E219" s="9" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" ht="14.4">
+      <c r="F219" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="14.4">
       <c r="A220" s="18">
         <v>3</v>
       </c>
@@ -8036,8 +8710,11 @@
       <c r="E220" s="9" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" ht="14.4">
+      <c r="F220" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="14.4">
       <c r="A221" s="18">
         <v>3</v>
       </c>
@@ -8053,8 +8730,11 @@
       <c r="E221" s="9" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" ht="14.4">
+      <c r="F221" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="14.4">
       <c r="A222" s="18">
         <v>3</v>
       </c>
@@ -8070,8 +8750,11 @@
       <c r="E222" s="9" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" ht="14.4">
+      <c r="F222" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="14.4">
       <c r="A223" s="18">
         <v>3</v>
       </c>
@@ -8087,8 +8770,11 @@
       <c r="E223" s="9" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" ht="14.4">
+      <c r="F223" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="14.4">
       <c r="A224" s="18">
         <v>3</v>
       </c>
@@ -8104,8 +8790,11 @@
       <c r="E224" s="9" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" ht="14.4">
+      <c r="F224" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="14.4">
       <c r="A225" s="18">
         <v>3</v>
       </c>
@@ -8121,8 +8810,11 @@
       <c r="E225" s="9" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" ht="14.4">
+      <c r="F225" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="14.4">
       <c r="A226" s="18">
         <v>3</v>
       </c>
@@ -8138,8 +8830,11 @@
       <c r="E226" s="9" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" ht="14.4">
+      <c r="F226" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="14.4">
       <c r="A227" s="18">
         <v>3</v>
       </c>
@@ -8155,8 +8850,11 @@
       <c r="E227" s="9" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" ht="14.4">
+      <c r="F227" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="14.4">
       <c r="A228" s="18">
         <v>3</v>
       </c>
@@ -8172,8 +8870,11 @@
       <c r="E228" s="9" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" ht="14.4">
+      <c r="F228" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="14.4">
       <c r="A229" s="18">
         <v>3</v>
       </c>
@@ -8189,8 +8890,11 @@
       <c r="E229" s="9" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" ht="14.4">
+      <c r="F229" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="14.4">
       <c r="A230" s="18">
         <v>3</v>
       </c>
@@ -8206,8 +8910,11 @@
       <c r="E230" s="9" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" ht="14.4">
+      <c r="F230" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="14.4">
       <c r="A231" s="18">
         <v>3</v>
       </c>
@@ -8223,8 +8930,11 @@
       <c r="E231" s="9" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" ht="14.4">
+      <c r="F231" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="14.4">
       <c r="A232" s="18">
         <v>3</v>
       </c>
@@ -8240,8 +8950,11 @@
       <c r="E232" s="9" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" ht="14.4">
+      <c r="F232" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="14.4">
       <c r="A233" s="18">
         <v>3</v>
       </c>
@@ -8257,8 +8970,11 @@
       <c r="E233" s="9" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" ht="14.4">
+      <c r="F233" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="14.4">
       <c r="A234" s="18">
         <v>3</v>
       </c>
@@ -8274,8 +8990,11 @@
       <c r="E234" s="9" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" ht="14.4">
+      <c r="F234" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="14.4">
       <c r="A235" s="18">
         <v>3</v>
       </c>
@@ -8291,8 +9010,11 @@
       <c r="E235" s="9" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" ht="14.4">
+      <c r="F235" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="14.4">
       <c r="A236" s="18">
         <v>3</v>
       </c>
@@ -8308,8 +9030,11 @@
       <c r="E236" s="9" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" ht="14.4">
+      <c r="F236" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="14.4">
       <c r="A237" s="18">
         <v>3</v>
       </c>
@@ -8325,8 +9050,11 @@
       <c r="E237" s="9" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" ht="14.4">
+      <c r="F237" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="14.4">
       <c r="A238" s="18">
         <v>3</v>
       </c>
@@ -8342,8 +9070,11 @@
       <c r="E238" s="9" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" ht="14.4">
+      <c r="F238" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="14.4">
       <c r="A239" s="18">
         <v>3</v>
       </c>
@@ -8359,8 +9090,11 @@
       <c r="E239" s="9" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" ht="14.4">
+      <c r="F239" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="14.4">
       <c r="A240" s="18">
         <v>3</v>
       </c>
@@ -8376,8 +9110,11 @@
       <c r="E240" s="9" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" ht="14.4">
+      <c r="F240" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="14.4">
       <c r="A241" s="18">
         <v>3</v>
       </c>
@@ -8393,8 +9130,11 @@
       <c r="E241" s="9" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" ht="14.4">
+      <c r="F241" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="14.4">
       <c r="A242" s="18">
         <v>3</v>
       </c>
@@ -8410,8 +9150,11 @@
       <c r="E242" s="9" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" ht="14.4">
+      <c r="F242" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="14.4">
       <c r="A243" s="18">
         <v>3</v>
       </c>
@@ -8427,8 +9170,11 @@
       <c r="E243" s="9" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" ht="14.4">
+      <c r="F243" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="14.4">
       <c r="A244" s="18">
         <v>3</v>
       </c>
@@ -8444,8 +9190,11 @@
       <c r="E244" s="9" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" ht="14.4">
+      <c r="F244" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="14.4">
       <c r="A245" s="18">
         <v>3</v>
       </c>
@@ -8461,8 +9210,11 @@
       <c r="E245" s="9" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="14.4">
+      <c r="F245" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="14.4">
       <c r="A246" s="18">
         <v>3</v>
       </c>
@@ -8478,8 +9230,11 @@
       <c r="E246" s="9" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" ht="14.4">
+      <c r="F246" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="14.4">
       <c r="A247" s="18">
         <v>3</v>
       </c>
@@ -8495,8 +9250,11 @@
       <c r="E247" s="9" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" ht="14.4">
+      <c r="F247" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="14.4">
       <c r="A248" s="18">
         <v>3</v>
       </c>
@@ -8512,8 +9270,11 @@
       <c r="E248" s="9" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" ht="14.4">
+      <c r="F248" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="14.4">
       <c r="A249" s="18">
         <v>3</v>
       </c>
@@ -8529,8 +9290,11 @@
       <c r="E249" s="9" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" ht="14.4">
+      <c r="F249" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="14.4">
       <c r="A250" s="18">
         <v>3</v>
       </c>
@@ -8546,8 +9310,11 @@
       <c r="E250" s="9" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" ht="14.4">
+      <c r="F250" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="14.4">
       <c r="A251" s="18">
         <v>3</v>
       </c>
@@ -8563,8 +9330,11 @@
       <c r="E251" s="9" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" ht="14.4">
+      <c r="F251" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="14.4">
       <c r="A252" s="18">
         <v>3</v>
       </c>
@@ -8580,8 +9350,11 @@
       <c r="E252" s="9" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" ht="14.4">
+      <c r="F252" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="14.4">
       <c r="A253" s="18">
         <v>3</v>
       </c>
@@ -8597,8 +9370,11 @@
       <c r="E253" s="9" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" ht="14.4">
+      <c r="F253" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="14.4">
       <c r="A254" s="18">
         <v>3</v>
       </c>
@@ -8609,13 +9385,16 @@
         <v>586</v>
       </c>
       <c r="D254" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E254" s="9" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" ht="14.4">
+      <c r="F254" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="14.4">
       <c r="A255" s="18">
         <v>3</v>
       </c>
@@ -8631,8 +9410,11 @@
       <c r="E255" s="9" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" ht="14.4">
+      <c r="F255" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="14.4">
       <c r="A256" s="18">
         <v>3</v>
       </c>
@@ -8648,8 +9430,11 @@
       <c r="E256" s="9" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" ht="14.4">
+      <c r="F256" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="14.4">
       <c r="A257" s="18">
         <v>3</v>
       </c>
@@ -8665,8 +9450,11 @@
       <c r="E257" s="9" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" ht="14.4">
+      <c r="F257" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="14.4">
       <c r="A258" s="18">
         <v>3</v>
       </c>
@@ -8682,8 +9470,11 @@
       <c r="E258" s="9" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" ht="14.4">
+      <c r="F258" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="14.4">
       <c r="A259" s="18">
         <v>3</v>
       </c>
@@ -8699,8 +9490,11 @@
       <c r="E259" s="9" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" ht="14.4">
+      <c r="F259" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="14.4">
       <c r="A260" s="18">
         <v>3</v>
       </c>
@@ -8716,8 +9510,11 @@
       <c r="E260" s="9" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" ht="14.4">
+      <c r="F260" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="14.4">
       <c r="A261" s="18">
         <v>3</v>
       </c>
@@ -8733,8 +9530,11 @@
       <c r="E261" s="9" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" ht="14.4">
+      <c r="F261" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="14.4">
       <c r="A262" s="18">
         <v>3</v>
       </c>
@@ -8750,8 +9550,11 @@
       <c r="E262" s="9" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" ht="14.4">
+      <c r="F262" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="14.4">
       <c r="A263" s="18">
         <v>3</v>
       </c>
@@ -8767,8 +9570,11 @@
       <c r="E263" s="9" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" ht="14.4">
+      <c r="F263" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="14.4">
       <c r="A264" s="18">
         <v>3</v>
       </c>
@@ -8784,8 +9590,11 @@
       <c r="E264" s="9" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" ht="14.4">
+      <c r="F264" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="14.4">
       <c r="A265" s="18">
         <v>3</v>
       </c>
@@ -8801,8 +9610,11 @@
       <c r="E265" s="9" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" ht="14.4">
+      <c r="F265" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="14.4">
       <c r="A266" s="18">
         <v>3</v>
       </c>
@@ -8818,8 +9630,11 @@
       <c r="E266" s="9" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" ht="14.4">
+      <c r="F266" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="14.4">
       <c r="A267" s="18">
         <v>3</v>
       </c>
@@ -8835,8 +9650,11 @@
       <c r="E267" s="9" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" ht="14.4">
+      <c r="F267" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="14.4">
       <c r="A268" s="18">
         <v>3</v>
       </c>
@@ -8852,8 +9670,11 @@
       <c r="E268" s="9" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" ht="14.4">
+      <c r="F268" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="14.4">
       <c r="A269" s="18">
         <v>3</v>
       </c>
@@ -8869,8 +9690,11 @@
       <c r="E269" s="9" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" ht="14.4">
+      <c r="F269" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="14.4">
       <c r="A270" s="18">
         <v>3</v>
       </c>
@@ -8886,8 +9710,11 @@
       <c r="E270" s="9" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" ht="14.4">
+      <c r="F270" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="14.4">
       <c r="A271" s="18">
         <v>3</v>
       </c>
@@ -8903,8 +9730,11 @@
       <c r="E271" s="9" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" ht="14.4">
+      <c r="F271" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="14.4">
       <c r="A272" s="18">
         <v>3</v>
       </c>
@@ -8920,8 +9750,11 @@
       <c r="E272" s="9" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" ht="14.4">
+      <c r="F272" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="14.4">
       <c r="A273" s="18">
         <v>3</v>
       </c>
@@ -8937,8 +9770,11 @@
       <c r="E273" s="9" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" ht="14.4">
+      <c r="F273" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="14.4">
       <c r="A274" s="18">
         <v>3</v>
       </c>
@@ -8954,8 +9790,11 @@
       <c r="E274" s="9" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" ht="14.4">
+      <c r="F274" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="14.4">
       <c r="A275" s="18">
         <v>3</v>
       </c>
@@ -8971,8 +9810,11 @@
       <c r="E275" s="9" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" ht="14.4">
+      <c r="F275" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="14.4">
       <c r="A276" s="18">
         <v>3</v>
       </c>
@@ -8988,8 +9830,11 @@
       <c r="E276" s="9" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" ht="14.4">
+      <c r="F276" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="14.4">
       <c r="A277" s="18">
         <v>3</v>
       </c>
@@ -9005,8 +9850,11 @@
       <c r="E277" s="9" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" ht="14.4">
+      <c r="F277" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="14.4">
       <c r="A278" s="18">
         <v>3</v>
       </c>
@@ -9022,8 +9870,11 @@
       <c r="E278" s="9" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" ht="14.4">
+      <c r="F278" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="14.4">
       <c r="A279" s="18">
         <v>3</v>
       </c>
@@ -9039,8 +9890,11 @@
       <c r="E279" s="9">
         <v>777</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" ht="14.4">
+      <c r="F279" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="14.4">
       <c r="A280" s="18">
         <v>3</v>
       </c>
@@ -9056,8 +9910,11 @@
       <c r="E280" s="9" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" ht="14.4">
+      <c r="F280" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="14.4">
       <c r="A281" s="18">
         <v>3</v>
       </c>
@@ -9073,8 +9930,11 @@
       <c r="E281" s="9" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" ht="14.4">
+      <c r="F281" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="14.4">
       <c r="A282" s="18">
         <v>3</v>
       </c>
@@ -9090,8 +9950,11 @@
       <c r="E282" s="9" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" ht="14.4">
+      <c r="F282" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="14.4">
       <c r="A283" s="18">
         <v>3</v>
       </c>
@@ -9107,8 +9970,11 @@
       <c r="E283" s="9" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" ht="14.4">
+      <c r="F283" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="14.4">
       <c r="A284" s="18">
         <v>3</v>
       </c>
@@ -9124,8 +9990,11 @@
       <c r="E284" s="9" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" ht="14.4">
+      <c r="F284" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="14.4">
       <c r="A285" s="18">
         <v>3</v>
       </c>
@@ -9141,8 +10010,11 @@
       <c r="E285" s="9" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" ht="14.4">
+      <c r="F285" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="14.4">
       <c r="A286" s="18">
         <v>3</v>
       </c>
@@ -9158,8 +10030,11 @@
       <c r="E286" s="9" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" ht="14.4">
+      <c r="F286" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="14.4">
       <c r="A287" s="18">
         <v>3</v>
       </c>
@@ -9175,8 +10050,11 @@
       <c r="E287" s="9" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" ht="14.4">
+      <c r="F287" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="14.4">
       <c r="A288" s="18">
         <v>3</v>
       </c>
@@ -9192,8 +10070,11 @@
       <c r="E288" s="9" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" ht="14.4">
+      <c r="F288" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="14.4">
       <c r="A289" s="18">
         <v>3</v>
       </c>
@@ -9209,8 +10090,11 @@
       <c r="E289" s="9" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" ht="14.4">
+      <c r="F289" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="14.4">
       <c r="A290" s="18">
         <v>3</v>
       </c>
@@ -9226,8 +10110,11 @@
       <c r="E290" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" ht="14.4">
+      <c r="F290" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="14.4">
       <c r="A291" s="18">
         <v>3</v>
       </c>
@@ -9243,8 +10130,11 @@
       <c r="E291" s="9">
         <v>888</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" ht="14.4">
+      <c r="F291" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="14.4">
       <c r="A292" s="18">
         <v>3</v>
       </c>
@@ -9260,8 +10150,11 @@
       <c r="E292" s="9" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" ht="14.4">
+      <c r="F292" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="14.4">
       <c r="A293" s="18">
         <v>3</v>
       </c>
@@ -9277,8 +10170,11 @@
       <c r="E293" s="9" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" ht="14.4">
+      <c r="F293" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="14.4">
       <c r="A294" s="18">
         <v>3</v>
       </c>
@@ -9294,8 +10190,11 @@
       <c r="E294" s="9" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" ht="14.4">
+      <c r="F294" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="14.4">
       <c r="A295" s="18">
         <v>3</v>
       </c>
@@ -9311,8 +10210,11 @@
       <c r="E295" s="9" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" ht="14.4">
+      <c r="F295" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="14.4">
       <c r="A296" s="18">
         <v>3</v>
       </c>
@@ -9328,8 +10230,11 @@
       <c r="E296" s="9" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" ht="14.4">
+      <c r="F296" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="14.4">
       <c r="A297" s="18">
         <v>3</v>
       </c>
@@ -9345,8 +10250,11 @@
       <c r="E297" s="9" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" ht="14.4">
+      <c r="F297" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="14.4">
       <c r="A298" s="18">
         <v>3</v>
       </c>
@@ -9362,8 +10270,11 @@
       <c r="E298" s="9" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" ht="14.4">
+      <c r="F298" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="14.4">
       <c r="A299" s="18">
         <v>3</v>
       </c>
@@ -9379,8 +10290,11 @@
       <c r="E299" s="9" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" ht="14.4">
+      <c r="F299" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="14.4">
       <c r="A300" s="18">
         <v>3</v>
       </c>
@@ -9396,8 +10310,11 @@
       <c r="E300" s="9" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" ht="14.4">
+      <c r="F300" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="14.4">
       <c r="A301" s="18">
         <v>3</v>
       </c>
@@ -9408,13 +10325,16 @@
         <v>633</v>
       </c>
       <c r="D301" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E301" s="9" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" ht="14.4">
+      <c r="F301" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="14.4">
       <c r="A302" s="18">
         <v>3</v>
       </c>
@@ -9430,8 +10350,11 @@
       <c r="E302" s="9" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" ht="14.4">
+      <c r="F302" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="14.4">
       <c r="A303" s="18">
         <v>3</v>
       </c>
@@ -9447,8 +10370,11 @@
       <c r="E303" s="9" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" ht="14.4">
+      <c r="F303" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="14.4">
       <c r="A304" s="18">
         <v>3</v>
       </c>
@@ -9464,8 +10390,11 @@
       <c r="E304" s="9" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" ht="14.4">
+      <c r="F304" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="14.4">
       <c r="A305" s="18">
         <v>3</v>
       </c>
@@ -9481,8 +10410,11 @@
       <c r="E305" s="9" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" ht="14.4">
+      <c r="F305" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="14.4">
       <c r="A306" s="18">
         <v>3</v>
       </c>
@@ -9498,8 +10430,11 @@
       <c r="E306" s="9" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" ht="14.4">
+      <c r="F306" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="14.4">
       <c r="A307" s="18">
         <v>3</v>
       </c>
@@ -9515,8 +10450,11 @@
       <c r="E307" s="9" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" ht="14.4">
+      <c r="F307" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="14.4">
       <c r="A308" s="18">
         <v>3</v>
       </c>
@@ -9532,8 +10470,11 @@
       <c r="E308" s="9" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" ht="14.4">
+      <c r="F308" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="14.4">
       <c r="A309" s="18">
         <v>3</v>
       </c>
@@ -9549,8 +10490,11 @@
       <c r="E309" s="9" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" ht="14.4">
+      <c r="F309" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="14.4">
       <c r="A310" s="18">
         <v>3</v>
       </c>
@@ -9566,8 +10510,11 @@
       <c r="E310" s="9" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" ht="14.4">
+      <c r="F310" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="14.4">
       <c r="A311" s="18">
         <v>3</v>
       </c>
@@ -9583,8 +10530,11 @@
       <c r="E311" s="9" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" ht="14.4">
+      <c r="F311" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="14.4">
       <c r="A312" s="18">
         <v>3</v>
       </c>
@@ -9600,8 +10550,11 @@
       <c r="E312" s="9" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" ht="14.4">
+      <c r="F312" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="14.4">
       <c r="A313" s="18">
         <v>3</v>
       </c>
@@ -9617,8 +10570,11 @@
       <c r="E313" s="9" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" ht="14.4">
+      <c r="F313" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="14.4">
       <c r="A314" s="18">
         <v>3</v>
       </c>
@@ -9634,8 +10590,11 @@
       <c r="E314" s="9" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" ht="14.4">
+      <c r="F314" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="14.4">
       <c r="A315" s="18">
         <v>3</v>
       </c>
@@ -9651,8 +10610,11 @@
       <c r="E315" s="9" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" ht="14.4">
+      <c r="F315" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="14.4">
       <c r="A316" s="18">
         <v>3</v>
       </c>
@@ -9668,8 +10630,11 @@
       <c r="E316" s="9" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" ht="14.4">
+      <c r="F316" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="14.4">
       <c r="A317" s="18">
         <v>3</v>
       </c>
@@ -9685,8 +10650,11 @@
       <c r="E317" s="9" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" ht="14.4">
+      <c r="F317" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="14.4">
       <c r="A318" s="18">
         <v>3</v>
       </c>
@@ -9702,8 +10670,11 @@
       <c r="E318" s="9" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" ht="14.4">
+      <c r="F318" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="14.4">
       <c r="A319" s="18">
         <v>3</v>
       </c>
@@ -9719,8 +10690,11 @@
       <c r="E319" s="9" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" ht="14.4">
+      <c r="F319" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="14.4">
       <c r="A320" s="18">
         <v>3</v>
       </c>
@@ -9736,8 +10710,11 @@
       <c r="E320" s="9" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" ht="14.4">
+      <c r="F320" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="14.4">
       <c r="A321" s="18">
         <v>3</v>
       </c>
@@ -9753,8 +10730,11 @@
       <c r="E321" s="9" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" ht="14.4">
+      <c r="F321" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="14.4">
       <c r="A322" s="18">
         <v>3</v>
       </c>
@@ -9770,8 +10750,11 @@
       <c r="E322" s="9" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" ht="14.4">
+      <c r="F322" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="14.4">
       <c r="A323" s="18">
         <v>3</v>
       </c>
@@ -9787,8 +10770,11 @@
       <c r="E323" s="9" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" ht="14.4">
+      <c r="F323" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="14.4">
       <c r="A324" s="18">
         <v>3</v>
       </c>
@@ -9804,8 +10790,11 @@
       <c r="E324" s="9" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" ht="14.4">
+      <c r="F324" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="14.4">
       <c r="A325" s="18">
         <v>3</v>
       </c>
@@ -9821,8 +10810,11 @@
       <c r="E325" s="9" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" ht="14.4">
+      <c r="F325" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="14.4">
       <c r="A326" s="18">
         <v>3</v>
       </c>
@@ -9838,8 +10830,11 @@
       <c r="E326" s="9" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" ht="14.4">
+      <c r="F326" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="14.4">
       <c r="A327" s="18">
         <v>3</v>
       </c>
@@ -9855,8 +10850,11 @@
       <c r="E327" s="9" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" ht="14.4">
+      <c r="F327" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="14.4">
       <c r="A328" s="18">
         <v>3</v>
       </c>
@@ -9872,8 +10870,11 @@
       <c r="E328" s="9" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" ht="14.4">
+      <c r="F328" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="14.4">
       <c r="A329" s="18">
         <v>3</v>
       </c>
@@ -9889,8 +10890,11 @@
       <c r="E329" s="9" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" ht="14.4">
+      <c r="F329" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="14.4">
       <c r="A330" s="18">
         <v>3</v>
       </c>
@@ -9906,8 +10910,11 @@
       <c r="E330" s="9" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" ht="14.4">
+      <c r="F330" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="14.4">
       <c r="A331" s="18">
         <v>3</v>
       </c>
@@ -9923,8 +10930,11 @@
       <c r="E331" s="9" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" ht="14.4">
+      <c r="F331" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="14.4">
       <c r="A332" s="18">
         <v>3</v>
       </c>
@@ -9940,8 +10950,11 @@
       <c r="E332" s="9" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" ht="14.4">
+      <c r="F332" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="14.4">
       <c r="A333" s="18">
         <v>3</v>
       </c>
@@ -9957,8 +10970,11 @@
       <c r="E333" s="9" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" ht="14.4">
+      <c r="F333" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="14.4">
       <c r="A334" s="18">
         <v>3</v>
       </c>
@@ -9974,8 +10990,11 @@
       <c r="E334" s="9" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" ht="14.4">
+      <c r="F334" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="14.4">
       <c r="A335" s="18">
         <v>3</v>
       </c>
@@ -9991,8 +11010,11 @@
       <c r="E335" s="9" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" ht="14.4">
+      <c r="F335" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="14.4">
       <c r="A336" s="18">
         <v>3</v>
       </c>
@@ -10008,6 +11030,9 @@
       <c r="E336" s="9" t="s">
         <v>1001</v>
       </c>
+      <c r="F336" s="18" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="18">
@@ -10025,7 +11050,9 @@
       <c r="E337" s="18" t="s">
         <v>1015</v>
       </c>
-      <c r="F337" s="18"/>
+      <c r="F337" s="18" t="s">
+        <v>1031</v>
+      </c>
       <c r="G337" s="18"/>
     </row>
     <row r="338" spans="1:7">
@@ -10044,7 +11071,9 @@
       <c r="E338" s="18" t="s">
         <v>1016</v>
       </c>
-      <c r="F338" s="18"/>
+      <c r="F338" s="18" t="s">
+        <v>1031</v>
+      </c>
       <c r="G338" s="18"/>
     </row>
     <row r="339" spans="1:7">
@@ -10063,7 +11092,9 @@
       <c r="E339" s="18" t="s">
         <v>1017</v>
       </c>
-      <c r="F339" s="18"/>
+      <c r="F339" s="18" t="s">
+        <v>1031</v>
+      </c>
       <c r="G339" s="18"/>
     </row>
     <row r="340" spans="1:7">
@@ -10082,7 +11113,9 @@
       <c r="E340" s="18" t="s">
         <v>1018</v>
       </c>
-      <c r="F340" s="18"/>
+      <c r="F340" s="18" t="s">
+        <v>1031</v>
+      </c>
       <c r="G340" s="18"/>
     </row>
     <row r="341" spans="1:7">
@@ -10101,7 +11134,9 @@
       <c r="E341" s="18" t="s">
         <v>1019</v>
       </c>
-      <c r="F341" s="18"/>
+      <c r="F341" s="18" t="s">
+        <v>1031</v>
+      </c>
       <c r="G341" s="18"/>
     </row>
     <row r="342" spans="1:7">
@@ -10120,7 +11155,9 @@
       <c r="E342" s="18" t="s">
         <v>1020</v>
       </c>
-      <c r="F342" s="18"/>
+      <c r="F342" s="18" t="s">
+        <v>1031</v>
+      </c>
       <c r="G342" s="18"/>
     </row>
     <row r="343" spans="1:7">
@@ -10139,7 +11176,9 @@
       <c r="E343" s="18" t="s">
         <v>1021</v>
       </c>
-      <c r="F343" s="18"/>
+      <c r="F343" s="18" t="s">
+        <v>1031</v>
+      </c>
       <c r="G343" s="18"/>
     </row>
     <row r="344" spans="1:7">
@@ -10158,7 +11197,9 @@
       <c r="E344" s="18" t="s">
         <v>1022</v>
       </c>
-      <c r="F344" s="18"/>
+      <c r="F344" s="18" t="s">
+        <v>1031</v>
+      </c>
       <c r="G344" s="18"/>
     </row>
     <row r="345" spans="1:7">
@@ -10177,7 +11218,9 @@
       <c r="E345" s="18" t="s">
         <v>1023</v>
       </c>
-      <c r="F345" s="18"/>
+      <c r="F345" s="18" t="s">
+        <v>1031</v>
+      </c>
       <c r="G345" s="18"/>
     </row>
     <row r="346" spans="1:7">
@@ -10196,7 +11239,9 @@
       <c r="E346" s="18" t="s">
         <v>1024</v>
       </c>
-      <c r="F346" s="18"/>
+      <c r="F346" s="18" t="s">
+        <v>1031</v>
+      </c>
       <c r="G346" s="18"/>
     </row>
     <row r="347" spans="1:7">
@@ -10215,7 +11260,9 @@
       <c r="E347" s="18" t="s">
         <v>1025</v>
       </c>
-      <c r="F347" s="18"/>
+      <c r="F347" s="18" t="s">
+        <v>1031</v>
+      </c>
       <c r="G347" s="18"/>
     </row>
     <row r="348" spans="1:7">
@@ -10234,7 +11281,9 @@
       <c r="E348" s="18" t="s">
         <v>1026</v>
       </c>
-      <c r="F348" s="18"/>
+      <c r="F348" s="18" t="s">
+        <v>1031</v>
+      </c>
       <c r="G348" s="18"/>
     </row>
     <row r="349" spans="1:7">
@@ -10253,7 +11302,9 @@
       <c r="E349" s="18" t="s">
         <v>1027</v>
       </c>
-      <c r="F349" s="18"/>
+      <c r="F349" s="18" t="s">
+        <v>1031</v>
+      </c>
       <c r="G349" s="18"/>
     </row>
   </sheetData>

--- a/casino/casino-admin/src/main/resources/excleTemplate/gameList.xlsx
+++ b/casino/casino-admin/src/main/resources/excleTemplate/gameList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86176\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E4C57F-981D-45D4-90FD-55B7C32B9B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A1DC7F-F036-4319-A5CF-03D7CCD702F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="1045">
   <si>
     <t>平台id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3658,45 +3658,6 @@
     <t>安達巴哈</t>
   </si>
   <si>
-    <t>Baccarat</t>
-  </si>
-  <si>
-    <t>Dragon Tiger</t>
-  </si>
-  <si>
-    <t>Roulette</t>
-  </si>
-  <si>
-    <t>SicBo</t>
-  </si>
-  <si>
-    <t>Niu Niu</t>
-  </si>
-  <si>
-    <t>Three Face</t>
-  </si>
-  <si>
-    <t>Fantan</t>
-  </si>
-  <si>
-    <t>Se Die</t>
-  </si>
-  <si>
-    <t>Fish-Prawn-Crab</t>
-  </si>
-  <si>
-    <t>Golden Flower</t>
-  </si>
-  <si>
-    <t>Wenzhou Pai Gow</t>
-  </si>
-  <si>
-    <t>Mahjong tiles</t>
-  </si>
-  <si>
-    <t>AndarBahar</t>
-  </si>
-  <si>
     <t>平台名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3711,6 +3672,84 @@
   <si>
     <t>WM</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onlybac</t>
+  </si>
+  <si>
+    <t>onlydgtg</t>
+  </si>
+  <si>
+    <t>onlyrou</t>
+  </si>
+  <si>
+    <t>onlysicbo</t>
+  </si>
+  <si>
+    <t>onlyniuniu</t>
+  </si>
+  <si>
+    <t>onlysamgong</t>
+  </si>
+  <si>
+    <t>onlyfantan</t>
+  </si>
+  <si>
+    <t>onlysedie</t>
+  </si>
+  <si>
+    <t>onlyfishshrimpcrab</t>
+  </si>
+  <si>
+    <t>onlygoldenflower</t>
+  </si>
+  <si>
+    <t>onlypaigow</t>
+  </si>
+  <si>
+    <t>onlythisbar</t>
+  </si>
+  <si>
+    <t>onlyandarbahar</t>
+  </si>
+  <si>
+    <t>Baccarat</t>
+  </si>
+  <si>
+    <t>Dragon Tiger</t>
+  </si>
+  <si>
+    <t>Roulette</t>
+  </si>
+  <si>
+    <t>SicBo</t>
+  </si>
+  <si>
+    <t>Niu Niu</t>
+  </si>
+  <si>
+    <t>Three Face</t>
+  </si>
+  <si>
+    <t>Fantan</t>
+  </si>
+  <si>
+    <t>Se Die</t>
+  </si>
+  <si>
+    <t>Fish-Prawn-Crab</t>
+  </si>
+  <si>
+    <t>Golden Flower</t>
+  </si>
+  <si>
+    <t>Wenzhou Pai Gow</t>
+  </si>
+  <si>
+    <t>Mahjong tiles</t>
+  </si>
+  <si>
+    <t>AndarBahar</t>
   </si>
 </sst>
 </file>
@@ -4300,8 +4339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="F332" sqref="F332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4331,7 +4370,7 @@
         <v>669</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.4">
@@ -4351,7 +4390,7 @@
         <v>670</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.4">
@@ -4371,7 +4410,7 @@
         <v>671</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4">
@@ -4391,7 +4430,7 @@
         <v>672</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.4">
@@ -4411,7 +4450,7 @@
         <v>673</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4">
@@ -4431,7 +4470,7 @@
         <v>674</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.4">
@@ -4451,7 +4490,7 @@
         <v>675</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4">
@@ -4471,7 +4510,7 @@
         <v>676</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.4">
@@ -4491,7 +4530,7 @@
         <v>677</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4">
@@ -4511,7 +4550,7 @@
         <v>678</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4">
@@ -4531,7 +4570,7 @@
         <v>679</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.4">
@@ -4551,7 +4590,7 @@
         <v>680</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4">
@@ -4571,7 +4610,7 @@
         <v>681</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4">
@@ -4591,7 +4630,7 @@
         <v>682</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.4">
@@ -4611,7 +4650,7 @@
         <v>683</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4">
@@ -4631,7 +4670,7 @@
         <v>684</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.4">
@@ -4651,7 +4690,7 @@
         <v>685</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.4">
@@ -4671,7 +4710,7 @@
         <v>686</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.4">
@@ -4691,7 +4730,7 @@
         <v>687</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.4">
@@ -4711,7 +4750,7 @@
         <v>688</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.4">
@@ -4731,7 +4770,7 @@
         <v>689</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.4">
@@ -4751,7 +4790,7 @@
         <v>690</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.4">
@@ -4771,7 +4810,7 @@
         <v>691</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.4">
@@ -4791,7 +4830,7 @@
         <v>692</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.4">
@@ -4811,7 +4850,7 @@
         <v>693</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.4">
@@ -4831,7 +4870,7 @@
         <v>694</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.4">
@@ -4851,7 +4890,7 @@
         <v>695</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.4">
@@ -4871,7 +4910,7 @@
         <v>696</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.4">
@@ -4891,7 +4930,7 @@
         <v>697</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.4">
@@ -4911,7 +4950,7 @@
         <v>698</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.4">
@@ -4931,7 +4970,7 @@
         <v>699</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.4">
@@ -4951,7 +4990,7 @@
         <v>700</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.4">
@@ -4971,7 +5010,7 @@
         <v>701</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.4">
@@ -4991,7 +5030,7 @@
         <v>702</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.4">
@@ -5011,7 +5050,7 @@
         <v>703</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5031,7 +5070,7 @@
         <v>704</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5051,7 +5090,7 @@
         <v>705</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5071,7 +5110,7 @@
         <v>706</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5091,7 +5130,7 @@
         <v>707</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.4">
@@ -5111,7 +5150,7 @@
         <v>708</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.4">
@@ -5131,7 +5170,7 @@
         <v>709</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.4">
@@ -5151,7 +5190,7 @@
         <v>710</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.4">
@@ -5171,7 +5210,7 @@
         <v>711</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.4">
@@ -5191,7 +5230,7 @@
         <v>712</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.4">
@@ -5211,7 +5250,7 @@
         <v>713</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.4">
@@ -5231,7 +5270,7 @@
         <v>714</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.4">
@@ -5251,7 +5290,7 @@
         <v>715</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.4">
@@ -5271,7 +5310,7 @@
         <v>716</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.4">
@@ -5291,7 +5330,7 @@
         <v>717</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.4">
@@ -5311,7 +5350,7 @@
         <v>718</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.4">
@@ -5331,7 +5370,7 @@
         <v>719</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.4">
@@ -5351,7 +5390,7 @@
         <v>720</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.4">
@@ -5371,7 +5410,7 @@
         <v>721</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.4">
@@ -5391,7 +5430,7 @@
         <v>722</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.4">
@@ -5411,7 +5450,7 @@
         <v>723</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.4">
@@ -5431,7 +5470,7 @@
         <v>724</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.4">
@@ -5451,7 +5490,7 @@
         <v>725</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5471,7 +5510,7 @@
         <v>726</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.4">
@@ -5491,7 +5530,7 @@
         <v>727</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.4">
@@ -5511,7 +5550,7 @@
         <v>728</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.4">
@@ -5531,7 +5570,7 @@
         <v>729</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.4">
@@ -5551,7 +5590,7 @@
         <v>730</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.4">
@@ -5571,7 +5610,7 @@
         <v>731</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.4">
@@ -5591,7 +5630,7 @@
         <v>732</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.4">
@@ -5611,7 +5650,7 @@
         <v>733</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.4">
@@ -5631,7 +5670,7 @@
         <v>734</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.4">
@@ -5651,7 +5690,7 @@
         <v>735</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.4">
@@ -5671,7 +5710,7 @@
         <v>736</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.4">
@@ -5691,7 +5730,7 @@
         <v>737</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.4">
@@ -5711,7 +5750,7 @@
         <v>738</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.4">
@@ -5731,7 +5770,7 @@
         <v>739</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.4">
@@ -5751,7 +5790,7 @@
         <v>740</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.4">
@@ -5771,7 +5810,7 @@
         <v>741</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.4">
@@ -5791,7 +5830,7 @@
         <v>742</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.4">
@@ -5811,7 +5850,7 @@
         <v>743</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.4">
@@ -5831,7 +5870,7 @@
         <v>744</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.4">
@@ -5851,7 +5890,7 @@
         <v>745</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.4">
@@ -5871,7 +5910,7 @@
         <v>746</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.4">
@@ -5891,7 +5930,7 @@
         <v>747</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.4">
@@ -5911,7 +5950,7 @@
         <v>748</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.4">
@@ -5931,7 +5970,7 @@
         <v>749</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.4">
@@ -5951,7 +5990,7 @@
         <v>750</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.4">
@@ -5971,7 +6010,7 @@
         <v>751</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.4">
@@ -5991,7 +6030,7 @@
         <v>752</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.4">
@@ -6011,7 +6050,7 @@
         <v>753</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.4">
@@ -6031,7 +6070,7 @@
         <v>754</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.4">
@@ -6051,7 +6090,7 @@
         <v>755</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.4">
@@ -6071,7 +6110,7 @@
         <v>756</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.4">
@@ -6091,7 +6130,7 @@
         <v>757</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.4">
@@ -6111,7 +6150,7 @@
         <v>758</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.4">
@@ -6131,7 +6170,7 @@
         <v>759</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.4">
@@ -6151,7 +6190,7 @@
         <v>760</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.4">
@@ -6171,7 +6210,7 @@
         <v>761</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.4">
@@ -6191,7 +6230,7 @@
         <v>762</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.4">
@@ -6211,7 +6250,7 @@
         <v>763</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.4">
@@ -6231,7 +6270,7 @@
         <v>764</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="14.4">
@@ -6251,7 +6290,7 @@
         <v>765</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="14.4">
@@ -6271,7 +6310,7 @@
         <v>766</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="14.4">
@@ -6291,7 +6330,7 @@
         <v>767</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="14.4">
@@ -6311,7 +6350,7 @@
         <v>768</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="14.4">
@@ -6331,7 +6370,7 @@
         <v>769</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="14.4">
@@ -6351,7 +6390,7 @@
         <v>770</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="14.4">
@@ -6371,7 +6410,7 @@
         <v>771</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="14.4">
@@ -6391,7 +6430,7 @@
         <v>772</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="14.4">
@@ -6411,7 +6450,7 @@
         <v>773</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="14.4">
@@ -6431,7 +6470,7 @@
         <v>774</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="14.4">
@@ -6451,7 +6490,7 @@
         <v>775</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="14.4">
@@ -6471,7 +6510,7 @@
         <v>776</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="14.4">
@@ -6491,7 +6530,7 @@
         <v>777</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="14.4">
@@ -6511,7 +6550,7 @@
         <v>778</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="14.4">
@@ -6531,7 +6570,7 @@
         <v>779</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="14.4">
@@ -6551,7 +6590,7 @@
         <v>780</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="14.4">
@@ -6571,7 +6610,7 @@
         <v>781</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="14.4">
@@ -6591,7 +6630,7 @@
         <v>782</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="14.4">
@@ -6611,7 +6650,7 @@
         <v>783</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="14.4">
@@ -6631,7 +6670,7 @@
         <v>784</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="14.4">
@@ -6651,7 +6690,7 @@
         <v>785</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="14.4">
@@ -6671,7 +6710,7 @@
         <v>786</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="14.4">
@@ -6691,7 +6730,7 @@
         <v>787</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="14.4">
@@ -6711,7 +6750,7 @@
         <v>788</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="14.4">
@@ -6731,7 +6770,7 @@
         <v>789</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="14.4">
@@ -6751,7 +6790,7 @@
         <v>790</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6771,7 +6810,7 @@
         <v>791</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6791,7 +6830,7 @@
         <v>792</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6811,7 +6850,7 @@
         <v>793</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6831,7 +6870,7 @@
         <v>794</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6851,7 +6890,7 @@
         <v>795</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="14.4">
@@ -6871,7 +6910,7 @@
         <v>796</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6891,7 +6930,7 @@
         <v>797</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6911,7 +6950,7 @@
         <v>798</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6931,7 +6970,7 @@
         <v>799</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6951,7 +6990,7 @@
         <v>800</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6971,7 +7010,7 @@
         <v>801</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6991,7 +7030,7 @@
         <v>802</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7011,7 +7050,7 @@
         <v>803</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -7031,7 +7070,7 @@
         <v>804</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -7051,7 +7090,7 @@
         <v>805</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -7071,7 +7110,7 @@
         <v>806</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -7091,7 +7130,7 @@
         <v>807</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -7111,7 +7150,7 @@
         <v>808</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="14.4">
@@ -7131,7 +7170,7 @@
         <v>809</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -7151,7 +7190,7 @@
         <v>810</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7171,7 +7210,7 @@
         <v>811</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7191,7 +7230,7 @@
         <v>812</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7211,7 +7250,7 @@
         <v>813</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -7231,7 +7270,7 @@
         <v>814</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -7251,7 +7290,7 @@
         <v>815</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -7271,7 +7310,7 @@
         <v>816</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -7291,7 +7330,7 @@
         <v>817</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="14.4">
@@ -7311,7 +7350,7 @@
         <v>818</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -7331,7 +7370,7 @@
         <v>819</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -7351,7 +7390,7 @@
         <v>820</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -7371,7 +7410,7 @@
         <v>821</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -7391,7 +7430,7 @@
         <v>822</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -7411,7 +7450,7 @@
         <v>823</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7431,7 +7470,7 @@
         <v>824</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7451,7 +7490,7 @@
         <v>825</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -7471,7 +7510,7 @@
         <v>826</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7491,7 +7530,7 @@
         <v>827</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="14.4">
@@ -7511,7 +7550,7 @@
         <v>828</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="14.4">
@@ -7531,7 +7570,7 @@
         <v>829</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7551,7 +7590,7 @@
         <v>830</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="14.4">
@@ -7571,7 +7610,7 @@
         <v>831</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="14.4">
@@ -7591,7 +7630,7 @@
         <v>832</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="14.4">
@@ -7611,7 +7650,7 @@
         <v>833</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="14.4">
@@ -7631,7 +7670,7 @@
         <v>834</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="14.4">
@@ -7651,7 +7690,7 @@
         <v>835</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="14.4">
@@ -7671,7 +7710,7 @@
         <v>836</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="14.4">
@@ -7691,7 +7730,7 @@
         <v>837</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="14.4">
@@ -7711,7 +7750,7 @@
         <v>838</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="14.4">
@@ -7731,7 +7770,7 @@
         <v>839</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="14.4">
@@ -7751,7 +7790,7 @@
         <v>840</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="14.4">
@@ -7771,7 +7810,7 @@
         <v>841</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="14.4">
@@ -7791,7 +7830,7 @@
         <v>842</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="14.4">
@@ -7811,7 +7850,7 @@
         <v>843</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="14.4">
@@ -7831,7 +7870,7 @@
         <v>844</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="14.4">
@@ -7851,7 +7890,7 @@
         <v>845</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="14.4">
@@ -7871,7 +7910,7 @@
         <v>846</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="14.4">
@@ -7891,7 +7930,7 @@
         <v>847</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="14.4">
@@ -7911,7 +7950,7 @@
         <v>848</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="14.4">
@@ -7931,7 +7970,7 @@
         <v>849</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="14.4">
@@ -7951,7 +7990,7 @@
         <v>850</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="14.4">
@@ -7971,7 +8010,7 @@
         <v>851</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="14.4">
@@ -7991,7 +8030,7 @@
         <v>852</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="14.4">
@@ -8011,7 +8050,7 @@
         <v>853</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="14.4">
@@ -8031,7 +8070,7 @@
         <v>854</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="14.4">
@@ -8051,7 +8090,7 @@
         <v>855</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="14.4">
@@ -8071,7 +8110,7 @@
         <v>856</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="14.4">
@@ -8091,7 +8130,7 @@
         <v>857</v>
       </c>
       <c r="F189" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="14.4">
@@ -8111,7 +8150,7 @@
         <v>858</v>
       </c>
       <c r="F190" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="14.4">
@@ -8131,7 +8170,7 @@
         <v>859</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="14.4">
@@ -8151,7 +8190,7 @@
         <v>860</v>
       </c>
       <c r="F192" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="14.4">
@@ -8171,7 +8210,7 @@
         <v>861</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="14.4">
@@ -8191,7 +8230,7 @@
         <v>862</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="14.4">
@@ -8211,7 +8250,7 @@
         <v>863</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="14.4">
@@ -8231,7 +8270,7 @@
         <v>864</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="14.4">
@@ -8251,7 +8290,7 @@
         <v>865</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="14.4">
@@ -8271,7 +8310,7 @@
         <v>866</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="14.4">
@@ -8291,7 +8330,7 @@
         <v>867</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="14.4">
@@ -8311,7 +8350,7 @@
         <v>868</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="14.4">
@@ -8331,7 +8370,7 @@
         <v>869</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="14.4">
@@ -8351,7 +8390,7 @@
         <v>870</v>
       </c>
       <c r="F202" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="14.4">
@@ -8371,7 +8410,7 @@
         <v>871</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="14.4">
@@ -8391,7 +8430,7 @@
         <v>872</v>
       </c>
       <c r="F204" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="14.4">
@@ -8411,7 +8450,7 @@
         <v>873</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="14.4">
@@ -8431,7 +8470,7 @@
         <v>874</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="14.4">
@@ -8451,7 +8490,7 @@
         <v>875</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="14.4">
@@ -8471,7 +8510,7 @@
         <v>876</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="14.4">
@@ -8491,7 +8530,7 @@
         <v>877</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="14.4">
@@ -8511,7 +8550,7 @@
         <v>878</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="14.4">
@@ -8531,7 +8570,7 @@
         <v>879</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="14.4">
@@ -8551,7 +8590,7 @@
         <v>880</v>
       </c>
       <c r="F212" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="14.4">
@@ -8571,7 +8610,7 @@
         <v>881</v>
       </c>
       <c r="F213" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="14.4">
@@ -8591,7 +8630,7 @@
         <v>882</v>
       </c>
       <c r="F214" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="14.4">
@@ -8611,7 +8650,7 @@
         <v>883</v>
       </c>
       <c r="F215" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="14.4">
@@ -8631,7 +8670,7 @@
         <v>884</v>
       </c>
       <c r="F216" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="14.4">
@@ -8651,7 +8690,7 @@
         <v>885</v>
       </c>
       <c r="F217" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="14.4">
@@ -8671,7 +8710,7 @@
         <v>886</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="14.4">
@@ -8691,7 +8730,7 @@
         <v>887</v>
       </c>
       <c r="F219" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="14.4">
@@ -8711,7 +8750,7 @@
         <v>888</v>
       </c>
       <c r="F220" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="14.4">
@@ -8731,7 +8770,7 @@
         <v>889</v>
       </c>
       <c r="F221" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="14.4">
@@ -8751,7 +8790,7 @@
         <v>890</v>
       </c>
       <c r="F222" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="14.4">
@@ -8771,7 +8810,7 @@
         <v>891</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="14.4">
@@ -8791,7 +8830,7 @@
         <v>892</v>
       </c>
       <c r="F224" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="14.4">
@@ -8811,7 +8850,7 @@
         <v>893</v>
       </c>
       <c r="F225" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="14.4">
@@ -8831,7 +8870,7 @@
         <v>894</v>
       </c>
       <c r="F226" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="14.4">
@@ -8851,7 +8890,7 @@
         <v>895</v>
       </c>
       <c r="F227" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="14.4">
@@ -8871,7 +8910,7 @@
         <v>896</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="14.4">
@@ -8891,7 +8930,7 @@
         <v>897</v>
       </c>
       <c r="F229" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="14.4">
@@ -8911,7 +8950,7 @@
         <v>898</v>
       </c>
       <c r="F230" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="14.4">
@@ -8931,7 +8970,7 @@
         <v>899</v>
       </c>
       <c r="F231" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="14.4">
@@ -8951,7 +8990,7 @@
         <v>900</v>
       </c>
       <c r="F232" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="14.4">
@@ -8971,7 +9010,7 @@
         <v>901</v>
       </c>
       <c r="F233" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="14.4">
@@ -8991,7 +9030,7 @@
         <v>902</v>
       </c>
       <c r="F234" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="14.4">
@@ -9011,7 +9050,7 @@
         <v>903</v>
       </c>
       <c r="F235" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="14.4">
@@ -9031,7 +9070,7 @@
         <v>904</v>
       </c>
       <c r="F236" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="14.4">
@@ -9051,7 +9090,7 @@
         <v>905</v>
       </c>
       <c r="F237" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="14.4">
@@ -9071,7 +9110,7 @@
         <v>886</v>
       </c>
       <c r="F238" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="14.4">
@@ -9091,7 +9130,7 @@
         <v>906</v>
       </c>
       <c r="F239" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="14.4">
@@ -9111,7 +9150,7 @@
         <v>907</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="14.4">
@@ -9131,7 +9170,7 @@
         <v>908</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="14.4">
@@ -9151,7 +9190,7 @@
         <v>909</v>
       </c>
       <c r="F242" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="14.4">
@@ -9171,7 +9210,7 @@
         <v>910</v>
       </c>
       <c r="F243" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="14.4">
@@ -9191,7 +9230,7 @@
         <v>911</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="14.4">
@@ -9211,7 +9250,7 @@
         <v>912</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="14.4">
@@ -9231,7 +9270,7 @@
         <v>913</v>
       </c>
       <c r="F246" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="14.4">
@@ -9251,7 +9290,7 @@
         <v>914</v>
       </c>
       <c r="F247" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="14.4">
@@ -9271,7 +9310,7 @@
         <v>915</v>
       </c>
       <c r="F248" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="14.4">
@@ -9291,7 +9330,7 @@
         <v>916</v>
       </c>
       <c r="F249" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="14.4">
@@ -9311,7 +9350,7 @@
         <v>917</v>
       </c>
       <c r="F250" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="14.4">
@@ -9331,7 +9370,7 @@
         <v>918</v>
       </c>
       <c r="F251" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="14.4">
@@ -9351,7 +9390,7 @@
         <v>919</v>
       </c>
       <c r="F252" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="14.4">
@@ -9371,7 +9410,7 @@
         <v>920</v>
       </c>
       <c r="F253" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="14.4">
@@ -9391,7 +9430,7 @@
         <v>921</v>
       </c>
       <c r="F254" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="14.4">
@@ -9411,7 +9450,7 @@
         <v>922</v>
       </c>
       <c r="F255" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="14.4">
@@ -9431,7 +9470,7 @@
         <v>923</v>
       </c>
       <c r="F256" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="14.4">
@@ -9451,7 +9490,7 @@
         <v>924</v>
       </c>
       <c r="F257" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="14.4">
@@ -9471,7 +9510,7 @@
         <v>925</v>
       </c>
       <c r="F258" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="14.4">
@@ -9491,7 +9530,7 @@
         <v>926</v>
       </c>
       <c r="F259" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="14.4">
@@ -9511,7 +9550,7 @@
         <v>927</v>
       </c>
       <c r="F260" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="14.4">
@@ -9531,7 +9570,7 @@
         <v>928</v>
       </c>
       <c r="F261" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="14.4">
@@ -9551,7 +9590,7 @@
         <v>929</v>
       </c>
       <c r="F262" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="14.4">
@@ -9571,7 +9610,7 @@
         <v>930</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="14.4">
@@ -9591,7 +9630,7 @@
         <v>931</v>
       </c>
       <c r="F264" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="14.4">
@@ -9611,7 +9650,7 @@
         <v>932</v>
       </c>
       <c r="F265" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="14.4">
@@ -9631,7 +9670,7 @@
         <v>933</v>
       </c>
       <c r="F266" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="14.4">
@@ -9651,7 +9690,7 @@
         <v>934</v>
       </c>
       <c r="F267" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="14.4">
@@ -9671,7 +9710,7 @@
         <v>935</v>
       </c>
       <c r="F268" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="14.4">
@@ -9691,7 +9730,7 @@
         <v>936</v>
       </c>
       <c r="F269" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="14.4">
@@ -9711,7 +9750,7 @@
         <v>937</v>
       </c>
       <c r="F270" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="14.4">
@@ -9731,7 +9770,7 @@
         <v>938</v>
       </c>
       <c r="F271" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="14.4">
@@ -9751,7 +9790,7 @@
         <v>939</v>
       </c>
       <c r="F272" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="14.4">
@@ -9771,7 +9810,7 @@
         <v>940</v>
       </c>
       <c r="F273" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="14.4">
@@ -9791,7 +9830,7 @@
         <v>941</v>
       </c>
       <c r="F274" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="14.4">
@@ -9811,7 +9850,7 @@
         <v>942</v>
       </c>
       <c r="F275" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="14.4">
@@ -9831,7 +9870,7 @@
         <v>943</v>
       </c>
       <c r="F276" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="14.4">
@@ -9851,7 +9890,7 @@
         <v>944</v>
       </c>
       <c r="F277" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="14.4">
@@ -9871,7 +9910,7 @@
         <v>945</v>
       </c>
       <c r="F278" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="14.4">
@@ -9891,7 +9930,7 @@
         <v>777</v>
       </c>
       <c r="F279" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="14.4">
@@ -9911,7 +9950,7 @@
         <v>946</v>
       </c>
       <c r="F280" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="14.4">
@@ -9931,7 +9970,7 @@
         <v>947</v>
       </c>
       <c r="F281" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="14.4">
@@ -9951,7 +9990,7 @@
         <v>948</v>
       </c>
       <c r="F282" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="14.4">
@@ -9971,7 +10010,7 @@
         <v>949</v>
       </c>
       <c r="F283" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="14.4">
@@ -9991,7 +10030,7 @@
         <v>950</v>
       </c>
       <c r="F284" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="14.4">
@@ -10011,7 +10050,7 @@
         <v>951</v>
       </c>
       <c r="F285" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="14.4">
@@ -10031,7 +10070,7 @@
         <v>952</v>
       </c>
       <c r="F286" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="14.4">
@@ -10051,7 +10090,7 @@
         <v>953</v>
       </c>
       <c r="F287" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="14.4">
@@ -10071,7 +10110,7 @@
         <v>954</v>
       </c>
       <c r="F288" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="14.4">
@@ -10091,7 +10130,7 @@
         <v>955</v>
       </c>
       <c r="F289" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="14.4">
@@ -10111,7 +10150,7 @@
         <v>956</v>
       </c>
       <c r="F290" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="14.4">
@@ -10131,7 +10170,7 @@
         <v>888</v>
       </c>
       <c r="F291" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="14.4">
@@ -10151,7 +10190,7 @@
         <v>957</v>
       </c>
       <c r="F292" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="14.4">
@@ -10171,7 +10210,7 @@
         <v>958</v>
       </c>
       <c r="F293" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="14.4">
@@ -10191,7 +10230,7 @@
         <v>959</v>
       </c>
       <c r="F294" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="14.4">
@@ -10211,7 +10250,7 @@
         <v>960</v>
       </c>
       <c r="F295" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="14.4">
@@ -10231,7 +10270,7 @@
         <v>961</v>
       </c>
       <c r="F296" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="14.4">
@@ -10251,7 +10290,7 @@
         <v>962</v>
       </c>
       <c r="F297" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="14.4">
@@ -10271,7 +10310,7 @@
         <v>963</v>
       </c>
       <c r="F298" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="14.4">
@@ -10291,7 +10330,7 @@
         <v>964</v>
       </c>
       <c r="F299" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="14.4">
@@ -10311,7 +10350,7 @@
         <v>965</v>
       </c>
       <c r="F300" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="14.4">
@@ -10331,7 +10370,7 @@
         <v>966</v>
       </c>
       <c r="F301" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="14.4">
@@ -10351,7 +10390,7 @@
         <v>967</v>
       </c>
       <c r="F302" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="14.4">
@@ -10371,7 +10410,7 @@
         <v>968</v>
       </c>
       <c r="F303" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="14.4">
@@ -10391,7 +10430,7 @@
         <v>969</v>
       </c>
       <c r="F304" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="14.4">
@@ -10411,7 +10450,7 @@
         <v>970</v>
       </c>
       <c r="F305" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="14.4">
@@ -10431,7 +10470,7 @@
         <v>971</v>
       </c>
       <c r="F306" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="14.4">
@@ -10451,7 +10490,7 @@
         <v>972</v>
       </c>
       <c r="F307" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="14.4">
@@ -10471,7 +10510,7 @@
         <v>973</v>
       </c>
       <c r="F308" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="14.4">
@@ -10491,7 +10530,7 @@
         <v>974</v>
       </c>
       <c r="F309" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="14.4">
@@ -10511,7 +10550,7 @@
         <v>975</v>
       </c>
       <c r="F310" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="14.4">
@@ -10531,7 +10570,7 @@
         <v>976</v>
       </c>
       <c r="F311" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="14.4">
@@ -10551,7 +10590,7 @@
         <v>977</v>
       </c>
       <c r="F312" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="14.4">
@@ -10571,7 +10610,7 @@
         <v>978</v>
       </c>
       <c r="F313" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="14.4">
@@ -10591,7 +10630,7 @@
         <v>979</v>
       </c>
       <c r="F314" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="14.4">
@@ -10611,7 +10650,7 @@
         <v>980</v>
       </c>
       <c r="F315" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="14.4">
@@ -10631,7 +10670,7 @@
         <v>981</v>
       </c>
       <c r="F316" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="14.4">
@@ -10651,7 +10690,7 @@
         <v>982</v>
       </c>
       <c r="F317" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="14.4">
@@ -10671,7 +10710,7 @@
         <v>983</v>
       </c>
       <c r="F318" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="14.4">
@@ -10691,7 +10730,7 @@
         <v>984</v>
       </c>
       <c r="F319" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="14.4">
@@ -10711,7 +10750,7 @@
         <v>985</v>
       </c>
       <c r="F320" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="14.4">
@@ -10731,7 +10770,7 @@
         <v>986</v>
       </c>
       <c r="F321" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="14.4">
@@ -10751,7 +10790,7 @@
         <v>987</v>
       </c>
       <c r="F322" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="14.4">
@@ -10771,7 +10810,7 @@
         <v>988</v>
       </c>
       <c r="F323" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="14.4">
@@ -10791,7 +10830,7 @@
         <v>989</v>
       </c>
       <c r="F324" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="14.4">
@@ -10811,7 +10850,7 @@
         <v>990</v>
       </c>
       <c r="F325" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="14.4">
@@ -10831,7 +10870,7 @@
         <v>991</v>
       </c>
       <c r="F326" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="14.4">
@@ -10851,7 +10890,7 @@
         <v>992</v>
       </c>
       <c r="F327" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="14.4">
@@ -10871,7 +10910,7 @@
         <v>993</v>
       </c>
       <c r="F328" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="14.4">
@@ -10891,7 +10930,7 @@
         <v>994</v>
       </c>
       <c r="F329" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="14.4">
@@ -10911,7 +10950,7 @@
         <v>995</v>
       </c>
       <c r="F330" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="14.4">
@@ -10931,7 +10970,7 @@
         <v>996</v>
       </c>
       <c r="F331" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="14.4">
@@ -10951,7 +10990,7 @@
         <v>997</v>
       </c>
       <c r="F332" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="14.4">
@@ -10971,7 +11010,7 @@
         <v>998</v>
       </c>
       <c r="F333" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="14.4">
@@ -10991,7 +11030,7 @@
         <v>999</v>
       </c>
       <c r="F334" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="14.4">
@@ -11011,7 +11050,7 @@
         <v>1000</v>
       </c>
       <c r="F335" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="14.4">
@@ -11031,7 +11070,7 @@
         <v>1001</v>
       </c>
       <c r="F336" s="18" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -11041,17 +11080,17 @@
       <c r="B337" s="18" t="s">
         <v>1003</v>
       </c>
-      <c r="C337" s="18">
-        <v>101</v>
+      <c r="C337" s="18" t="s">
+        <v>1019</v>
       </c>
       <c r="D337" s="18">
         <v>1</v>
       </c>
       <c r="E337" s="18" t="s">
-        <v>1015</v>
+        <v>1032</v>
       </c>
       <c r="F337" s="18" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="G337" s="18"/>
     </row>
@@ -11062,17 +11101,17 @@
       <c r="B338" s="18" t="s">
         <v>1004</v>
       </c>
-      <c r="C338" s="18">
-        <v>102</v>
+      <c r="C338" s="18" t="s">
+        <v>1020</v>
       </c>
       <c r="D338" s="18">
         <v>1</v>
       </c>
       <c r="E338" s="18" t="s">
-        <v>1016</v>
+        <v>1033</v>
       </c>
       <c r="F338" s="18" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="G338" s="18"/>
     </row>
@@ -11083,17 +11122,17 @@
       <c r="B339" s="18" t="s">
         <v>1005</v>
       </c>
-      <c r="C339" s="18">
-        <v>103</v>
+      <c r="C339" s="18" t="s">
+        <v>1021</v>
       </c>
       <c r="D339" s="18">
         <v>1</v>
       </c>
       <c r="E339" s="18" t="s">
-        <v>1017</v>
+        <v>1034</v>
       </c>
       <c r="F339" s="18" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="G339" s="18"/>
     </row>
@@ -11104,17 +11143,17 @@
       <c r="B340" s="18" t="s">
         <v>1006</v>
       </c>
-      <c r="C340" s="18">
-        <v>104</v>
+      <c r="C340" s="18" t="s">
+        <v>1022</v>
       </c>
       <c r="D340" s="18">
         <v>1</v>
       </c>
       <c r="E340" s="18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F340" s="18" t="s">
         <v>1018</v>
-      </c>
-      <c r="F340" s="18" t="s">
-        <v>1031</v>
       </c>
       <c r="G340" s="18"/>
     </row>
@@ -11125,17 +11164,17 @@
       <c r="B341" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="C341" s="18">
-        <v>105</v>
+      <c r="C341" s="18" t="s">
+        <v>1023</v>
       </c>
       <c r="D341" s="18">
         <v>1</v>
       </c>
       <c r="E341" s="18" t="s">
-        <v>1019</v>
+        <v>1036</v>
       </c>
       <c r="F341" s="18" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="G341" s="18"/>
     </row>
@@ -11146,17 +11185,17 @@
       <c r="B342" s="18" t="s">
         <v>1008</v>
       </c>
-      <c r="C342" s="18">
-        <v>106</v>
+      <c r="C342" s="18" t="s">
+        <v>1024</v>
       </c>
       <c r="D342" s="18">
         <v>1</v>
       </c>
       <c r="E342" s="18" t="s">
-        <v>1020</v>
+        <v>1037</v>
       </c>
       <c r="F342" s="18" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="G342" s="18"/>
     </row>
@@ -11167,17 +11206,17 @@
       <c r="B343" s="18" t="s">
         <v>1009</v>
       </c>
-      <c r="C343" s="18">
-        <v>107</v>
+      <c r="C343" s="18" t="s">
+        <v>1025</v>
       </c>
       <c r="D343" s="18">
         <v>1</v>
       </c>
       <c r="E343" s="18" t="s">
-        <v>1021</v>
+        <v>1038</v>
       </c>
       <c r="F343" s="18" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="G343" s="18"/>
     </row>
@@ -11188,17 +11227,17 @@
       <c r="B344" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="C344" s="18">
-        <v>108</v>
+      <c r="C344" s="18" t="s">
+        <v>1026</v>
       </c>
       <c r="D344" s="18">
         <v>1</v>
       </c>
       <c r="E344" s="18" t="s">
-        <v>1022</v>
+        <v>1039</v>
       </c>
       <c r="F344" s="18" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="G344" s="18"/>
     </row>
@@ -11209,17 +11248,17 @@
       <c r="B345" s="18" t="s">
         <v>1010</v>
       </c>
-      <c r="C345" s="18">
-        <v>110</v>
+      <c r="C345" s="18" t="s">
+        <v>1027</v>
       </c>
       <c r="D345" s="18">
         <v>1</v>
       </c>
       <c r="E345" s="18" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
       <c r="F345" s="18" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="G345" s="18"/>
     </row>
@@ -11230,17 +11269,17 @@
       <c r="B346" s="18" t="s">
         <v>1011</v>
       </c>
-      <c r="C346" s="18">
-        <v>111</v>
+      <c r="C346" s="18" t="s">
+        <v>1028</v>
       </c>
       <c r="D346" s="18">
         <v>1</v>
       </c>
       <c r="E346" s="18" t="s">
-        <v>1024</v>
+        <v>1041</v>
       </c>
       <c r="F346" s="18" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="G346" s="18"/>
     </row>
@@ -11251,17 +11290,17 @@
       <c r="B347" s="18" t="s">
         <v>1012</v>
       </c>
-      <c r="C347" s="18">
-        <v>112</v>
+      <c r="C347" s="18" t="s">
+        <v>1029</v>
       </c>
       <c r="D347" s="18">
         <v>1</v>
       </c>
       <c r="E347" s="18" t="s">
-        <v>1025</v>
+        <v>1042</v>
       </c>
       <c r="F347" s="18" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="G347" s="18"/>
     </row>
@@ -11272,17 +11311,17 @@
       <c r="B348" s="18" t="s">
         <v>1013</v>
       </c>
-      <c r="C348" s="18">
-        <v>113</v>
+      <c r="C348" s="18" t="s">
+        <v>1030</v>
       </c>
       <c r="D348" s="18">
         <v>1</v>
       </c>
       <c r="E348" s="18" t="s">
-        <v>1026</v>
+        <v>1043</v>
       </c>
       <c r="F348" s="18" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="G348" s="18"/>
     </row>
@@ -11293,17 +11332,17 @@
       <c r="B349" s="18" t="s">
         <v>1014</v>
       </c>
-      <c r="C349" s="18">
-        <v>128</v>
+      <c r="C349" s="18" t="s">
+        <v>1031</v>
       </c>
       <c r="D349" s="18">
         <v>1</v>
       </c>
       <c r="E349" s="18" t="s">
-        <v>1027</v>
+        <v>1044</v>
       </c>
       <c r="F349" s="18" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="G349" s="18"/>
     </row>

--- a/casino/casino-admin/src/main/resources/excleTemplate/gameList.xlsx
+++ b/casino/casino-admin/src/main/resources/excleTemplate/gameList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86176\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\newWork\cloud-parent\casino\casino-admin\src\main\resources\excleTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A1DC7F-F036-4319-A5CF-03D7CCD702F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B38EB4-226D-4346-96CE-32D6C098312E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4340,7 +4340,7 @@
   <dimension ref="A1:G349"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="F332" sqref="F332"/>
+      <selection activeCell="I339" sqref="I339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4384,7 +4384,7 @@
         <v>88</v>
       </c>
       <c r="D2" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>670</v>
@@ -6964,7 +6964,7 @@
         <v>463</v>
       </c>
       <c r="D131" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131" s="21" t="s">
         <v>799</v>
@@ -9424,7 +9424,7 @@
         <v>586</v>
       </c>
       <c r="D254" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E254" s="9" t="s">
         <v>921</v>
@@ -10364,7 +10364,7 @@
         <v>633</v>
       </c>
       <c r="D301" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E301" s="9" t="s">
         <v>966</v>

--- a/casino/casino-admin/src/main/resources/excleTemplate/gameList.xlsx
+++ b/casino/casino-admin/src/main/resources/excleTemplate/gameList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\newWork\cloud-parent\casino\casino-admin\src\main\resources\excleTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B38EB4-226D-4346-96CE-32D6C098312E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F09FC9-B71D-4C49-B507-5AB471AAB9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="1032">
   <si>
     <t>平台id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3672,45 +3672,6 @@
   <si>
     <t>WM</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>onlybac</t>
-  </si>
-  <si>
-    <t>onlydgtg</t>
-  </si>
-  <si>
-    <t>onlyrou</t>
-  </si>
-  <si>
-    <t>onlysicbo</t>
-  </si>
-  <si>
-    <t>onlyniuniu</t>
-  </si>
-  <si>
-    <t>onlysamgong</t>
-  </si>
-  <si>
-    <t>onlyfantan</t>
-  </si>
-  <si>
-    <t>onlysedie</t>
-  </si>
-  <si>
-    <t>onlyfishshrimpcrab</t>
-  </si>
-  <si>
-    <t>onlygoldenflower</t>
-  </si>
-  <si>
-    <t>onlypaigow</t>
-  </si>
-  <si>
-    <t>onlythisbar</t>
-  </si>
-  <si>
-    <t>onlyandarbahar</t>
   </si>
   <si>
     <t>Baccarat</t>
@@ -4339,8 +4300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="I339" sqref="I339"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="D343" sqref="D343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11080,14 +11041,14 @@
       <c r="B337" s="18" t="s">
         <v>1003</v>
       </c>
-      <c r="C337" s="18" t="s">
+      <c r="C337" s="18">
+        <v>1</v>
+      </c>
+      <c r="D337" s="18">
+        <v>1</v>
+      </c>
+      <c r="E337" s="18" t="s">
         <v>1019</v>
-      </c>
-      <c r="D337" s="18">
-        <v>1</v>
-      </c>
-      <c r="E337" s="18" t="s">
-        <v>1032</v>
       </c>
       <c r="F337" s="18" t="s">
         <v>1018</v>
@@ -11101,14 +11062,14 @@
       <c r="B338" s="18" t="s">
         <v>1004</v>
       </c>
-      <c r="C338" s="18" t="s">
+      <c r="C338" s="18">
+        <v>2</v>
+      </c>
+      <c r="D338" s="18">
+        <v>1</v>
+      </c>
+      <c r="E338" s="18" t="s">
         <v>1020</v>
-      </c>
-      <c r="D338" s="18">
-        <v>1</v>
-      </c>
-      <c r="E338" s="18" t="s">
-        <v>1033</v>
       </c>
       <c r="F338" s="18" t="s">
         <v>1018</v>
@@ -11122,14 +11083,14 @@
       <c r="B339" s="18" t="s">
         <v>1005</v>
       </c>
-      <c r="C339" s="18" t="s">
+      <c r="C339" s="18">
+        <v>3</v>
+      </c>
+      <c r="D339" s="18">
+        <v>1</v>
+      </c>
+      <c r="E339" s="18" t="s">
         <v>1021</v>
-      </c>
-      <c r="D339" s="18">
-        <v>1</v>
-      </c>
-      <c r="E339" s="18" t="s">
-        <v>1034</v>
       </c>
       <c r="F339" s="18" t="s">
         <v>1018</v>
@@ -11143,14 +11104,14 @@
       <c r="B340" s="18" t="s">
         <v>1006</v>
       </c>
-      <c r="C340" s="18" t="s">
+      <c r="C340" s="18">
+        <v>4</v>
+      </c>
+      <c r="D340" s="18">
+        <v>1</v>
+      </c>
+      <c r="E340" s="18" t="s">
         <v>1022</v>
-      </c>
-      <c r="D340" s="18">
-        <v>1</v>
-      </c>
-      <c r="E340" s="18" t="s">
-        <v>1035</v>
       </c>
       <c r="F340" s="18" t="s">
         <v>1018</v>
@@ -11164,14 +11125,14 @@
       <c r="B341" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="C341" s="18" t="s">
+      <c r="C341" s="18">
+        <v>5</v>
+      </c>
+      <c r="D341" s="18">
+        <v>1</v>
+      </c>
+      <c r="E341" s="18" t="s">
         <v>1023</v>
-      </c>
-      <c r="D341" s="18">
-        <v>1</v>
-      </c>
-      <c r="E341" s="18" t="s">
-        <v>1036</v>
       </c>
       <c r="F341" s="18" t="s">
         <v>1018</v>
@@ -11185,14 +11146,14 @@
       <c r="B342" s="18" t="s">
         <v>1008</v>
       </c>
-      <c r="C342" s="18" t="s">
+      <c r="C342" s="18">
+        <v>6</v>
+      </c>
+      <c r="D342" s="18">
+        <v>1</v>
+      </c>
+      <c r="E342" s="18" t="s">
         <v>1024</v>
-      </c>
-      <c r="D342" s="18">
-        <v>1</v>
-      </c>
-      <c r="E342" s="18" t="s">
-        <v>1037</v>
       </c>
       <c r="F342" s="18" t="s">
         <v>1018</v>
@@ -11206,14 +11167,14 @@
       <c r="B343" s="18" t="s">
         <v>1009</v>
       </c>
-      <c r="C343" s="18" t="s">
+      <c r="C343" s="18">
+        <v>7</v>
+      </c>
+      <c r="D343" s="18">
+        <v>1</v>
+      </c>
+      <c r="E343" s="18" t="s">
         <v>1025</v>
-      </c>
-      <c r="D343" s="18">
-        <v>1</v>
-      </c>
-      <c r="E343" s="18" t="s">
-        <v>1038</v>
       </c>
       <c r="F343" s="18" t="s">
         <v>1018</v>
@@ -11227,14 +11188,14 @@
       <c r="B344" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="C344" s="18" t="s">
+      <c r="C344" s="18">
+        <v>8</v>
+      </c>
+      <c r="D344" s="18">
+        <v>1</v>
+      </c>
+      <c r="E344" s="18" t="s">
         <v>1026</v>
-      </c>
-      <c r="D344" s="18">
-        <v>1</v>
-      </c>
-      <c r="E344" s="18" t="s">
-        <v>1039</v>
       </c>
       <c r="F344" s="18" t="s">
         <v>1018</v>
@@ -11248,14 +11209,14 @@
       <c r="B345" s="18" t="s">
         <v>1010</v>
       </c>
-      <c r="C345" s="18" t="s">
+      <c r="C345" s="18">
+        <v>9</v>
+      </c>
+      <c r="D345" s="18">
+        <v>1</v>
+      </c>
+      <c r="E345" s="18" t="s">
         <v>1027</v>
-      </c>
-      <c r="D345" s="18">
-        <v>1</v>
-      </c>
-      <c r="E345" s="18" t="s">
-        <v>1040</v>
       </c>
       <c r="F345" s="18" t="s">
         <v>1018</v>
@@ -11269,14 +11230,14 @@
       <c r="B346" s="18" t="s">
         <v>1011</v>
       </c>
-      <c r="C346" s="18" t="s">
+      <c r="C346" s="18">
+        <v>10</v>
+      </c>
+      <c r="D346" s="18">
+        <v>1</v>
+      </c>
+      <c r="E346" s="18" t="s">
         <v>1028</v>
-      </c>
-      <c r="D346" s="18">
-        <v>1</v>
-      </c>
-      <c r="E346" s="18" t="s">
-        <v>1041</v>
       </c>
       <c r="F346" s="18" t="s">
         <v>1018</v>
@@ -11290,14 +11251,14 @@
       <c r="B347" s="18" t="s">
         <v>1012</v>
       </c>
-      <c r="C347" s="18" t="s">
+      <c r="C347" s="18">
+        <v>11</v>
+      </c>
+      <c r="D347" s="18">
+        <v>1</v>
+      </c>
+      <c r="E347" s="18" t="s">
         <v>1029</v>
-      </c>
-      <c r="D347" s="18">
-        <v>1</v>
-      </c>
-      <c r="E347" s="18" t="s">
-        <v>1042</v>
       </c>
       <c r="F347" s="18" t="s">
         <v>1018</v>
@@ -11311,14 +11272,14 @@
       <c r="B348" s="18" t="s">
         <v>1013</v>
       </c>
-      <c r="C348" s="18" t="s">
+      <c r="C348" s="18">
+        <v>12</v>
+      </c>
+      <c r="D348" s="18">
+        <v>1</v>
+      </c>
+      <c r="E348" s="18" t="s">
         <v>1030</v>
-      </c>
-      <c r="D348" s="18">
-        <v>1</v>
-      </c>
-      <c r="E348" s="18" t="s">
-        <v>1043</v>
       </c>
       <c r="F348" s="18" t="s">
         <v>1018</v>
@@ -11332,14 +11293,14 @@
       <c r="B349" s="18" t="s">
         <v>1014</v>
       </c>
-      <c r="C349" s="18" t="s">
+      <c r="C349" s="18">
+        <v>13</v>
+      </c>
+      <c r="D349" s="18">
+        <v>1</v>
+      </c>
+      <c r="E349" s="18" t="s">
         <v>1031</v>
-      </c>
-      <c r="D349" s="18">
-        <v>1</v>
-      </c>
-      <c r="E349" s="18" t="s">
-        <v>1044</v>
       </c>
       <c r="F349" s="18" t="s">
         <v>1018</v>
